--- a/finetuning/it_datasets/qa_dataset/qa_it_beni khiar_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_beni khiar_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,12 +676,58 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated dining spot, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This highly-regarded restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a 4.3 rating, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on  . To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 4.3 rating in the Beni Khiar area that specializes in Restaurant cuisine and offers a top-notch dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage Beni Khiar (36.4544108, 10.785304) for a refreshing start to the day.
+Mid-Morning: Visit the highly-rated Fast Food Haytham (36.4724714, 10.7885366) for a quick and delicious local cuisine experience.
+Midday: Head to the historic Port de Beni Khiar (36.4542877, 10.7969189) to enjoy the beautiful views and explore its offerings.
+Afternoon: Indulge in some shopping at Pepiniere Maamoura (36.46499, 10.80612) for a unique plant-shopping experience.
+Evening: Relish a delightful dinner at Restaurant la voix de la mer (45.19834, 0.35948), specializing in fresh seafood and a cozy dining ambience.
+Night: Relax and rejuvenate with a calming experience at Maison de campagne imed Aounallah (36.4724714, 10.7885366) for a perfect end to the day.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+PAPA WES'S PIZZA is a restaurant located in beni khiar, offering a variety of dishes and cuisines. It is situated at the coordinates (36.467164795132, 10.785382730321) and is open from 9:00 AM to midnight during weekdays. The restaurant has received 13 reviews and has a rating of 4.0.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -782,12 +833,59 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated spot for Restaurant lovers, check out La Pampa located at FQ3P+FRP La Pampa, Av. de la Liberte, Beni Khiar. This top-rated destination offers a range of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-13:00, 17:00-02:00, but closed on []. To get there, use these GPS coordinates: 36.454387640549, 10.785850418423. For more details, visit their link at https://www.google.com/maps/place/La+Pampa/data=!4m7!3m6!1s0x1302993b8ce6b9f5:0xd31cc0791a1de880!8m2!3d36.4537221!4d10.7870887!16s%2Fg%2F11f72jpdj_!19sChIJ9bnmjDuZAhMRgOgdGnnAHNM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 003 922.</t>
+          <t>La Pampa is a restaurant located in Beni Khiar, offering a variety of dining options. It has received a 4.4 rating from customers and is open from 7am to 1pm and 5pm to 2am daily. The restaurant's featured image showcases a vibrant and inviting ambiance, and it is located at the coordinates (36.454387640549, 10.785850418423).</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant offering a diverse menu in Beni Khiar with GPS coordinates of 36.454387640549, 10.785850418423?</t>
+          <t>Day Plan:
+Morning: Explore Boulangerie Beni khiar and try local pastries and bread.
+Mid-Morning: Visit Plage Beni Khiar and enjoy the beach's serene atmosphere and breathtaking views.
+Midday: Have lunch at Restaurant la voix de la mer and savor the authentic seafood experience.
+Afternoon: Engage in outdoor activities like swimming or hiking at Plage Beni Khiar.
+Evening: Visit Port de Beni Khiar and capture panoramic views of the Mediterranean Sea.
+Night: Dine at The Wave cafe-Resto, highly rated for its food and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a 4.3-rated restaurant located in beni khiar. It offers a wide range of food and drinks, and is open from 8:00am to 10:30pm every day of the week. The restaurant is located at (36.5502451, 10.7267426).
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -889,12 +987,58 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, call them at 92 422 215.</t>
+          <t>Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>In Beni Khiar, where can you find a highly acclaimed destination with a 4.4 rating, specializing in Boulangerie?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage Beni Khiar, known for its clean sands and crystal-clear waters. Enjoy a refreshing swim or soak up the sun on the beach.
+Mid-Morning: Visit the Fennia Cafe for a delightful coffee and pastry. The cafe's welcoming atmosphere and charming decor make it a perfect spot to relax and mingle with the locals.
+Midday: Indulge in a delightful lunch at Food Station Beni Khiar. This popular restaurant offers a wide range of dishes, ensuring there's something for every taste preference.
+Afternoon: Take a guided tour of the Port de Beni Khiar, a bustling port offering a range of services and amenities. Learn about the maritime history of the region and admire the stunning views of the harbor.
+Evening: Experience traditional Tunisian hospitality at Restaurant la voix de la mer. Specializing in seafood, this restaurant offers a fresh and authentic dining experience.
+Night: Head over to Gb@ lbndq bny khyr campsite for a unique camping adventure. Enjoy a comfortable stay amidst nature and take part in evening activities like bonfires or stargazing.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located at Beni Khiar, Tunisia. It's a popular place to go for a meal, offering a variety of dishes to choose from. The restaurant is open from 10:00 AM to 12:00 AM, and is closed on Fridays. It has a rating of 4.0 out of 5 on Google, with over 5 reviews.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1144,58 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in beni khiar, Restaurant La casa doro's your spot to be. This top-rated Restaurant is great for Restaurant enthusiasts and offers a range of Restaurant options. With a rating of 4.1, it's highly recommended. They're open from 10:00-21:30 all week except for dimanche. To get to Restaurant La casa doro, use these GPS coordinates: 36.5502451, 10.7267426.</t>
+          <t>Restaurant La Casa Doro, located in Beni Khiar, Tunisia, offers a delectable dining experience with a menu that will tantalize your taste buds. Conveniently situated at (36.5502451, 10.7267426), the restaurant boasts a warm and inviting ambiance. Its doors are open from Monday to Saturday from 10:00 to 21:30, so you can indulge in culinary delights any day of the week (except Sundays).</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you dine at a top-rated restaurant in Beni Khiar that offers an excellent variety of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Beni Khiar, admiring the maritime vessels and taking in the atmosphere.
+Mid-Morning: Indulge in local cuisine at Restaurant La Casa Doro, savoring the authentic flavors and ambiance.
+Midday: Visit Plage Beni Khiar, enjoying the serene beach, swimming in the crystal-clear waters, and indulging in beach volleyball.
+Afternoon: Shop for local goods and souvenirs at Pepiniere Maamoura, discovering the vibrant plant life and unique treasures.
+Evening: Take a guided tour of Maison de campagne imed Aounallah, immersing yourself in the agricultural practices and learning about the local farming techniques.
+Night: Relax and unwind at Jinen Beni Khiar, enjoying the peaceful ambiance, comfortable accommodations, and rejuvenating amenities of this guest house.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro, located in Beni Khiar, Tunisia, offers a delectable dining experience with a menu that will tantalize your taste buds. Conveniently situated at (36.5502451, 10.7267426), the restaurant boasts a warm and inviting ambiance. Its doors are open from Monday to Saturday from 10:00 to 21:30, so you can indulge in culinary delights any day of the week (except Sundays).
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1305,58 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great coffee, check out Cafe Ben brahim Chez Oussama located at FQGP+29X Cafe Ben brahim Chez Oussama, shr` ljmhwry@, Beni Khiar. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 03:30-23:00, but closed on Mondays. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at http://facebook.com/Fcb.OuSama or call them at 29 056 003.</t>
+          <t>Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe specializing in coffee, open from 3:30 AM to 11:00 PM, except on Mondays, in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar for its serene atmosphere and breathtaking views.
+Mid-Morning: Visit Pepiniere Maamoura to discover its wide range of plants in its nursery.
+Midday: Try local cuisine at Restaurant La Casa Doro, known for its high rating and positive reviews.
+Afternoon: Relax with a massage at Jinen Beni Khiar, a guest house with a 4.7-star rating.
+Evening: Enjoy scenic views at the Port de Beni Khiar, a popular place among visitors.
+Night: Experience cultural immersion at a traditional Tunisian music concert at Cafe Ben brahim.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1230,12 +1466,64 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out PAPA WES'S PIZZA located at 17 Av. Ahmed Tlili, Beni Khiar. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.467164795132, 10.785382730321. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 95 120 004.</t>
+          <t>**PAPA WES'S PIZZA** is a highly rated (4/5) restaurant located in Beni Khiar, Tunisia (36.467164795132, 10.785382730321). This restaurant, open from 9 am to midnight, offers a wide range of food options. Its website is https://best--restaurants.blogspot.com/ and its phone number is 95 120 004.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find PAPA WES'S PIZZA, a top-rated destination with a 4.0 rating, known for its Restaurant categories in Beni Khiar?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the captivating ruins of Port de Beni Khiar.
+**Mid-Morning:**
+* Visit Jinen Beni Khiar, a charming chambre d'hôtes, for a relaxing coffee break.
+**Midday:**
+* Savory local cuisine at Restaurant la voix de la mer, specializing in fresh seafood.
+**Afternoon:**
+* Stroll along Plage Beni Khiar, enjoying the sun and sand while taking part in beach volleyball.
+**Evening:**
+* Shop for local crafts and souvenirs at the Beni Khiar Market.
+**Night:**
+* Indulge in authentic Tunisian flavors at the highly rated Boulangerie Beni Khiar.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1333,14 +1621,59 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for a great cafe, check out BiBi Terrasse located at 2011 shr` 14 jnfy. 
-This top-rated destination is perfect for cafe lovers and offers a cozy ambiance with delicious coffee and pastries. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly-rated cafe (4.5 stars) known for its cozy ambiance, delectable coffee, and pastries?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Beni Khiar
+Mid-Morning: Trying local cuisine at Boulangerie Beni khiar
+Midday: Visiting the Port de Beni Khiar
+Afternoon: Enjoying beach volleyball at Plage Beni Khiar
+Evening: Relaxing with a massage at Jinen Beni Khiar
+Night: Participating in a traditional Tunisian music event at Cafe des Arcades</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mT`m lsh`b Bk** is a restaurant located in Beni Khiar, Tunisia. It is rated 4.8 out of 5 stars on Google and has a featured image of the restaurant's entrance. The restaurant is open from 6:00 AM to 1:00 PM and is closed on Fridays. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at FQ9J+PHC mT`m lsh`b Bk, Beni Khiar, Tunisia. The coordinates are 36.4724714, 10.7885366.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1438,12 +1771,58 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. This top-rated destination is perfect for Pizzeria lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/LA+BAMBA/data=!4m7!3m6!1s0x130299b21ed54aaf:0x2f1bb0297c36eba8!8m2!3d36.4644411!4d10.7833834!16s%2Fg%2F11flgfs71b!19sChIJr0rVHrKZAhMRqOs2fCmwGy8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Pizzeria with GPS coordinates of 36.5502451, 10.7267426 in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Plage Beni Khiar, renowned for its tranquil ambiance and breathtaking views.
+Mid-Morning: Indulge in the culinary delights of The Wave cafe-Resto, savoring authentic Tunisian cuisine while admiring the captivating atmosphere.
+Midday: Engage in outdoor activities such as swimming or sunbathing at Plage Beni Khiar, embracing the beauty of the Mediterranean Sea.
+Afternoon: Visit Port de Beni Khiar, a vibrant hub for maritime trade, offering panoramic vistas of the harbor and the opportunity to connect with locals.
+Evening: Experience the warm ambiance of Waka Waka, a charming cafe ideal for unwinding with refreshments and immersing yourself in the local vibe.
+Night: Relish delectable pizzas at CAPPELLO beni khiar, tantalizing your taste buds with authentic Italian flavors while enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Waka Waka, located in beni khiar, is a delightful cafe. Its convenient location at coordinates (36.46798, 10.75167) makes it easily accessible. The cafe's main focus is on providing a warm and inviting atmosphere for its customers, who can enjoy refreshments and relax in a cozy setting. With a rating of 5.0, Waka Waka has earned high praise from its patrons, highlighting the excellent experience it offers.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1924,58 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something fun to do, check out Fennia Cafe located at FQ8P+Q7Q Fennia Cafe, shr` 'Hmd ltlyly, Beni Khiar. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly rated cafe (rated 4.4) that serves a variety of cafe options and is a popular destination for cafe lovers?</t>
+          <t>Day Plan:
+Morning: Exploring Beni Khiar Town
+Mid-Morning: Trying local cuisine at The Wave cafe-Resto
+Midday: Visiting the Port de Beni Khiar
+Afternoon: Enjoying scenic views at Plage Beni Khiar
+Evening: Participating in cultural immersion at Jinen Beni Khiar
+Night: Relaxing with a stay at Maison de campagne imed Aounallah</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.
+LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1656,14 +2081,58 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great cafe, check out Cafe des Arcades located at 15 Av. 14 Janvier 2011, Beni Khiar. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 04:30-00:00, but closed on []. To get there, use these GPS coordinates: 36.460680010012, 10.785332774178. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+des+Arcades/data=!4m7!3m6!1s0x13029805637910e7:0xcad1634e2bb91187!8m2!3d36.4555824!4d10.7890205!16s%2Fg%2F1tf12sw3!19sChIJ5xB5YwWYAhMRhxG5K05j0co?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 443 842.</t>
+          <t>Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 4.4 rating and extended opening hours in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore La Pampa Restaurant for brunch (local cuisine)
+Mid-Morning: Visit Port de Beni Khiar for a scenic walk along the harbor
+Midday: Enjoy lunch at CAPPELLO beni khiar (5.0-rated pizzeria)
+Afternoon: Explore Waka Waka cafe for coffee and relax in its cozy atmosphere
+Evening: Take a guided tour of Jinen Beni Khiar, a charming chambre d'hotes
+Night: Experience scenic views at Plage Beni Khiar, a popular beach with breathtaking sunsets</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Pampa is a restaurant located in Beni Khiar, with coordinates (36.454387640549, 10.785850418423). It has a rating of 4.4 based on 24 reviews and is open from 7am to 1pm and 5pm to 2am.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1769,12 +2238,58 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great place to eat, check out Food Station Beni Khiar located at Rue de l'environnement 8060, Beni Khiar. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, visit their website or call them at 52 829 112.</t>
+          <t>Food Station Beni Khiar is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 10am to midnight, seven days a week. It is located at the coordinates (36.469386365975, 10.807021723363).</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant called Food Station Beni Khiar that offers a diverse food selection and is easily accessible in Beni Khiar?</t>
+          <t>Day Plan:
+**Morning:** Explore the bustling streets of Beni Khiar's local market, experiencing the vibrant street life and local produce.
+**Mid-Morning:** Indulge in a culinary adventure at Grill station, savoring the tantalizing flavors of seafood and grilled meats.
+**Midday:** Discover the picturesque Plage Beni Khiar, immersing yourself in the tranquillity of the beach and taking a refreshing swim in the sparkling waters.
+**Afternoon:** Ascend to the Port de Beni Khiar, admiring the stunning views of the harbor and exploring the range of vessels on display.
+**Evening:** Relish the authentic seafood cuisine at Restaurant la voix de la mer, delighting in the freshness of the day's catch.
+**Night:** Engage in cultural immersion at the Jinen Beni Khiar, a chambre d'hotes that offers a glimpse into the local history and traditions.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1872,14 +2387,58 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Fast Food Haythem located at 20-26, shr` lHbyb bwrqyb@. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at or call them at .</t>
+          <t>Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>What is the highly-rated fast food restaurant located in Beni Khiar, known for its exceptional Restauration rapide options and a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar, a popular beach with a serene atmosphere and breathtaking views.
+Mid-Morning: Try local cuisine at Fahmi Fast Food, a highly-rated restaurant offering a variety of food options.
+Midday: Visit Port de Beni Khiar, a popular port that offers a range of services and amenities.
+Afternoon: Enjoy a relaxing afternoon at BnB Jinen Beni Khiar, a guest house with a peaceful ambiance and high ratings.
+Evening: Take a guided tour of the local market, experiencing cultural immersion and the opportunity to purchase souvenirs.
+Night: Engage in stargazing at the Maison de campagne imed Aounallah, an agricultural hub offering a unique nighttime experience under a blanket of stars.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fahmi Fast Food is a restaurant located in Beni Khiar, Tunisia. It offers a variety of food options, and is highly rated by its customers. The restaurant is located at the coordinates (36.5502451, 10.7267426).
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.
+LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1989,12 +2548,58 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Beni khiar and looking for a great local restaurant, The Wave cafe-Resto is a top-rated destination located at beach, Beni khiar, Benikhiar 8060. With a rating of 4.3, it's a must-visit spot. It's open from 08:00 to 22:30 during the week and is closed on . For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100094180868711%26mibextid%3DLQQJ4d or call them at 92 721 295.</t>
+          <t>The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where is the top-rated local restaurant, The Wave cafe-Resto, located in Beni khiar, and what sets it apart?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Port de Beni Khiar for panoramic views of the Mediterranean Sea.
+Mid-Morning: Indulge in local cuisine at Food Station Beni Khiar, known for its diverse menu and high ratings.
+Midday: Visit Plage Beni Khiar, a beautiful beach with crystal-clear waters, perfect for swimming or sunbathing.
+Afternoon: Try your luck at LA BAMBA, a highly-rated pizzeria offering delicious pizzas in a cozy atmosphere.
+Evening: Stroll through the charming streets of Beni Khiar, browsing local shops and soaking up the authentic ambiance.
+Night: Relax and unwind at Jinen Beni Khiar, a guest house with a serene ambiance and a 4.7-star rating.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located at Beni Khiar, Tunisia. It's a popular place to go for a meal, offering a variety of dishes to choose from. The restaurant is open from 10:00 AM to 12:00 AM, and is closed on Fridays. It has a rating of 4.0 out of 5 on Google, with over 5 reviews.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2088,14 +2693,58 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Coffee shop zahraoui located at FQ8J+QFC Coffee shop zahraoui, nhj lTyb lmhyry, Beni Khiar. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Beni Khiar with GPS coordinates (36.4724714, 10.7885366)?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Beni Khiar (36.4542877, 10.7969189) and witness the maritime activities.
+Mid-Morning: Indulge in a mouthwatering seafood lunch at Restaurant la voix de la mer (45.19834, 0.35948), savoring the freshest catches of the day.
+Midday: Unwind and relax at Jinen Beni Khiar (36.469386365975, 10.807021723363), a charming guest house with a serene ambiance.
+Afternoon: Visit LA BAMBA (10.7267426, 36.5502451), a highly-rated pizzeria, and tantalize your taste buds with delectable pizzas.
+Evening: Stroll along Plage Beni Khiar (36.4544108, 10.785304), a serene beach boasting breathtaking views, and soak in the tranquility of its surroundings.
+Night: Experience the vibrant nightlife at Cafe Ilyes (36.470294891144, 10.781653705417), a lively cafe open 24 hours a day, and relish the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2842,58 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Pizzeria, CAPPELLO beni khiar is the perfect spot. Located at FQ7H+68V CAPPELLO beni khiar, Rue Fadhel Ben Achour, Beni Khiar, this popular destination has a 5.0 rating and offers a delicious range of Pizzeria options. For more details, visit their website at https://www.google.com/maps/place/CAPPELLO+beni+khiar/data=!4m7!3m6!1s0x1302990040dd0fc5:0x460909332633aefc!8m2!3d36.4631066!4d10.7782584!16s%2Fg%2F11vjtbq543!19sChIJxQ_dQACZAhMR_K4zJjMJCUY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a top-rated Pizzeria with a 5.0 rating and an extensive menu?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Beni Khiar
+Mid-Morning: Trying local cuisine at I,ROLL
+Midday: Experiencing cultural immersion at the Port of Beni Khiar
+Afternoon: Relaxing with a massage at Jinen Beni Khiar
+Evening: Enjoying scenic views at LA BAMBA
+Night: Participating in a guided tour of the Maison de campagne imed Aounallah</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+I,ROLL, located in Beni Khiar at coordinates 36.458789637547, 10.78665418903, is a highly rated restaurant (5.0 stars) with one review. Our information is limited as there is no available description, website, or contact details. However, based on the name "I,ROLL," one can speculate that it may specialize in rolled dishes such as sushi or wraps.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2991,58 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and searching for a great Cafe, consider mqh~ lblwr located at FQ9H+CWG mqh~ lblwr, shr` lHbyb bwrqyb@. With an impressive rating of 5.0, this top-rated destination is perfect for Cafe lovers. For more information, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A8%D9%84%D9%88%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x1302a2a1af487da5:0x922bc825a327a411!8m2!3d36.4685749!4d10.7798323!16s%2Fg%2F12qgqlw18!19sChIJpX1Ir6GiAhMREaQnoyXIK5I?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>This cafe, "mqh~lblwr", is located in Beni Khiar, Tunisia (36.4724714, 10.7885366). It has a 5-star rating based on 2 reviews, and its popularity can be attributed to its specialization as a cozy spot for coffee and drinks. While its precise offerings and ambiance are unknown, it's situated in a convenient location, making it a worthwhile destination for a quick break or a casual gathering.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in beni khiar with a 5.0 rating and located at FQ9H+CWG?</t>
+          <t>Day Plan:
+Morning: Explore Beni Khiar town center and visit historical landmarks such as the Port de Beni Khiar.
+Mid-Morning: Immerse in the local culture at Jinen Beni Khiar, a traditional chamber d'hotes.
+Midday: Savor authentic Tunisian seafood cuisine at Restaurant La Voix De la Mer.
+Afternoon: Relax on the serene shores of Plage Beni Khiar, enjoying sunbathing or swimming in the crystal-clear waters.
+Evening: Indulge in a shopping spree at the local markets, browsing for souvenirs and local crafts.
+Night: Experience the lively ambiance of LA BAMBA Pizzeria, savoring delicious pizzas in a friendly and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+Waka Waka, located in beni khiar, is a delightful cafe. Its convenient location at coordinates (36.46798, 10.75167) makes it easily accessible. The cafe's main focus is on providing a warm and inviting atmosphere for its customers, who can enjoy refreshments and relax in a cozy setting. With a rating of 5.0, Waka Waka has earned high praise from its patrons, highlighting the excellent experience it offers.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2407,12 +3148,58 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated cafe, then Cafe Ilyes is the perfect place for you. Located at 142 Av. de la Republique, this popular destination offers a great range of options for cafe lovers. With a rating of 4.0, it's a must-visit spot for anyone in the area. The cafe is open 24 hours a day, so you can visit anytime to enjoy their delicious food and drinks. To get there, use these GPS coordinates: (36.470294891144, 10.781653705417). For more details, visit their website at https://www.google.com/maps/place/Cafe+Ilyes/data=!4m7!3m6!1s0x1302a35a6117a645:0x239872eac0f5b869!8m2!3d36.4703206!4d10.7816965!16s%2Fg%2F11j1cjyzrj!19sChIJRaYXYVqjAhMRabj1wOpymCM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 701 347.</t>
+          <t>Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 4.0 rating in beni khiar that's open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Beni Khiar, taking in the local atmosphere.
+Mid-Morning: Visit the popular bakery "Beni Khiar" for a taste of their freshly baked goods.
+Midday: Indulge in a traditional Tunisian lunch at "Food Station Beni Khiar."
+Afternoon: Relax on the picturesque Plage Beni Khiar, enjoy the sun and sand, and take a refreshing swim.
+Evening: Experience the aromatic flavors of local cuisine at "CAPPELLO beni khiar."
+Night: Unwind with a peaceful stay at the highly-rated guesthouse "Jinen Beni Khiar."</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 10am to midnight, seven days a week. It is located at the coordinates (36.469386365975, 10.807021723363).
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2518,12 +3305,58 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a highly-rated Cafe, check out Bouzid Cafe located at FQCM+J7G Bouzid Cafe, shr` ljmhwry@. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can enjoy their delicious coffee and pastries anytime. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/Bouzid+Caf%C3%A9/data=!4m7!3m6!1s0x1302a31127eb5261:0x121471104d735288!8m2!3d36.4715567!4d10.7832133!16s%2Fg%2F11j211nqwl!19sChIJYVLrJxGjAhMRiFJzTRBxFBI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 640 071.</t>
+          <t>Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe open 24 hours a day in beni khiar with a 5.0 rating and accessible through GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage Beni Khiar, known for its pristine sands and crystal-clear waters. Enjoy swimming, sunbathing, and capturing stunning coastal views.
+Mid-Morning: Visit the Port of Beni Khiar, a maritime port that offers various services and facilities. Learn about the local maritime industry and admire the boats and ships docked at the port.
+Midday: Try the local cuisine at Restaurant La Casa Doro, renowned for its delicious dishes and warm ambiance. Indulge in traditional Tunisian flavors and savor the authentic dining experience.
+Afternoon: Take a guided tour of Jinen Beni Khiar, an exceptional chambre d'hôtes offering a glimpse into the local culture and history. Explore its charming spaces and learn about the region's rich heritage.
+Evening: Enjoy a scenic sunset at Maison de campagne imed Aounallah, an agricultural hub amidst picturesque surroundings. Immerse yourself in the tranquility of nature and unwind as the sun dips below the horizon.
+Night: Head to CAPPELLO beni khiar, a highly-rated pizzeria, for a delightful Italian dining experience. Relish authentic Italian pizzas and enjoy a memorable evening amidst the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2621,12 +3454,59 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great cafe experience, check out Waka Waka located at FQFF+3HV Waka Waka, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This top-rated destination is perfect for cafe lovers and offers a top-notch cafe experience. With a rating of 5.0, it's a must-visit spot. It's open during regular hours, but it's recommended to call ahead to confirm. To get there, use these GPS coordinates: 36.46798, 10.75167.</t>
+          <t>Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly-rated cafe experience with a rating of 5.0, making it a must-visit destination for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Visit the beautiful beach at Plage Beni Khiar, where you can swim, sunbathe, and enjoy the stunning coastal views.
+Mid-Morning: Enjoy local cuisine at Grill station, a restaurant known for its fresh seafood, grilled meats, and vegetarian options.
+Midday: Explore Port de Beni Khiar, a bustling port that offers panoramic views of the Mediterranean Sea and a glimpse into the town's maritime history.
+Afternoon: Relax and enjoy the outdoors at Gb@ lbndq bny khyr, a 4.5-rated campsite located in Beni Khiar.
+Evening: Dine at Restaurant la voix de la mer, which specializes in seafood and offers an authentic dining experience based on the freshest catches of the day.
+Night: Enjoy a relaxing evening at Jinen Beni Khiar, a highly-rated guest house in Beni Khiar with a 4.7-star rating.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2724,12 +3604,58 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Waka Waka located at FQFF+3HV Waka Waka, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.google.com/maps/place/Waka+Waka/data=!4m7!3m6!1s0x1302a300bcf37fd7:0x158d1bd542bdbae5!8m2!3d36.472732!4d10.7739367!16s%2Fg%2F11s57t9rl1!19sChIJ13_zvACjAhMR5bq9QtUbjRU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Waka Waka, located in beni khiar, is a delightful cafe. Its convenient location at coordinates (36.46798, 10.75167) makes it easily accessible. The cafe's main focus is on providing a warm and inviting atmosphere for its customers, who can enjoy refreshments and relax in a cozy setting. With a rating of 5.0, Waka Waka has earned high praise from its patrons, highlighting the excellent experience it offers.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a top-rated cafe with a 5.0 rating and a wide selection of cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port De Beni Khiar (4.6 rating).
+Mid-Morning: Indulge in local cuisine at the highly-rated Food Station Beni Khiar (4.0 rating).
+Midday: Visit the pristine Plage Beni Khiar, known for its clean sands and crystal-clear waters (4.1 rating).
+Afternoon: Experience cultural immersion at the historic CASA CAFE ISMAIL (Cafe de la Plage) (3.8 rating).
+Evening: Delight in authentic seafood dishes at Restaurant la voix de la mer (3.8 rating), specializing in fresh catches.
+Night: Engage in outdoor activities and relax at the 4.5-rated campsite Gb@ lbndq bny khyr, offering a serene ambiance amidst nature.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located at Beni Khiar, Tunisia. It's a popular place to go for a meal, offering a variety of dishes to choose from. The restaurant is open from 10:00 AM to 12:00 AM, and is closed on Fridays. It has a rating of 4.0 out of 5 on Google, with over 5 reviews.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2835,12 +3761,58 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great Cafe, check out Cafe Ilyes located at 142 Av. de la Republique, Beni Khiar. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, but closed on unknown. To get there, use these GPS coordinates: 36.470294891144, 10.781653705417. For more details, visit their website at https://www.google.com/maps/place/Cafe+Ilyes/data=!4m7!3m6!1s0x1302a35a6117a645:0x239872eac0f5b869!8m2!3d36.4703206!4d10.7816965!16s%2Fg%2F11j1cjyzrj!19sChIJRaYXYVqjAhMRabj1wOpymCM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 701 347.</t>
+          <t>Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of options, open around the clock, in the Beni Khiar area?</t>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar, a popular beach destination.
+Mid-Morning: Try local cuisine at Food Station Beni Khiar, known for its delectable dishes.
+Midday: Visit Port de Beni Khiar, a bustling port offering panoramic views.
+Afternoon: Enjoy scenic views at Jinen Beni Khiar, a charming chambre d'hôtes.
+Evening: Participate in a guided tour of Maison de campagne imed Aounallah, an agricultural hub.
+Night: Experience cultural immersion at LA BAMBA, a highly-rated pizzeria.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located at Beni Khiar, Tunisia. It's a popular place to go for a meal, offering a variety of dishes to choose from. The restaurant is open from 10:00 AM to 12:00 AM, and is closed on Fridays. It has a rating of 4.0 out of 5 on Google, with over 5 reviews.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2950,14 +3922,58 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out CASA CAFE ISMAIL (Cafe de la Plage) located at CASA CAFE ISMAIL (Cafe de la Plage), Av. de la Liberte, Beni Khiar 8060. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Restaurant to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.454387640549, 10.785850418423. For more details, visit their website at https://www.facebook.com/cafeplagebenikhiar1 or call them at 28 078 898.</t>
+          <t>Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a 3.8 rating and a range of culinary options in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar, soak up the sun, and enjoy a refreshing swim.
+Mid-Morning: Visit Port de Beni Khiar to witness its maritime prowess.
+Midday: Try local cuisine at mT`m lsh`b Bk, delighting in the authentic flavors of Tunisia.
+Afternoon: Discover the natural beauty of Jinen Beni Khiar, taking in its serene ambiance and lush greenery.
+Evening: Indulge in a 5-star dining experience at CAPPELLO beni khiar, relishing the exquisite flavors of Italian cuisine.
+Night: Immerse in the bustling atmosphere of Cafe Ilyes, enjoying delectable refreshments and lively conversations.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mT`m lsh`b Bk** is a restaurant located in Beni Khiar, Tunisia. It is rated 4.8 out of 5 stars on Google and has a featured image of the restaurant's entrance. The restaurant is open from 6:00 AM to 1:00 PM and is closed on Fridays. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at FQ9J+PHC mT`m lsh`b Bk, Beni Khiar, Tunisia. The coordinates are 36.4724714, 10.7885366.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3055,12 +4071,64 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Plage Beni khiar located at Plage Beni khiar, Beni Khiar. This top-rated destination is perfect for Plage lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4544108, 10.785304. For more details, visit their website at &lt;a href=https://www.google.com/maps/place/Plage+Beni+khiar/data=!4m7!3m6!1s0x130298133d9368ef:0x72b70addba56e0eb!8m2!3d36.451221!4d10.7785374!16s%2Fg%2F12hnfyj4w!19sChIJ72iTPROYAhMR6-BWut0Kt3I?authuser=0&amp;hl=fr&amp;rclk=1&gt;here&lt;/a&gt;.</t>
+          <t>Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>What is the top-rated Plage destination in Beni khiar, known for its exceptional Plage experiences and boasts a rating of 4.1?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Beni Khiar (Maritime Port)
+- Learn about the port's exceptional services and its role in the local maritime industry (Estimated time: 1 hour)
+Mid-Morning: Trying local cuisine at Restaurant la voix de la mer
+- Indulge in an authentic seafood dining experience, savoring the freshest catches of the day (Estimated time: 1 hour 30 minutes)
+Midday: Enjoying scenic views at Plage Beni Khiar (Beach)
+- Relax on the pristine sands, swim in the crystal-clear waters, and soak up the coastal vistas (Estimated time: 2 hours)
+Afternoon: Visiting Jinen Beni Khiar (Guest House)
+- Explore the guest house, admiring its inviting ambiance and picturesque setting (Estimated time: 30 minutes)
+Evening: Participating in a guided tour of Grill Station (Restaurant)
+- Discover the culinary delights of Grill Station, renowned for its fruits de mer, generous garnish, and competitive prices. Indulge in a guided tour to learn about the restaurant's culinary philosophy and local favorites (Estimated time: 1 hour 30 minutes)
+Night: Relaxing with a stay at Maison de campagne imed Aounallah (Agricultural Hub)
+- Retreat to Maison de campagne imed Aounallah, an agricultural hub offering comfortable accommodations and a peaceful ambiance. Immerse yourself in the tranquility of the countryside setting (Estimated time: Overnight stay)</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill Station, located in beni khiar (36.475302, 10.7851807), is a popular Restaurant with a 4.3 rating based on 29 reviews. It is known for its focus on fruits de mer, generous garnish, and competitive prices. Visit their website at https://www.facebook.com/Grill-station-1855632481210052/ for more information.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3170,14 +4238,58 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Grill station located in Beni Khiar known for its exceptional restaurant offerings?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant atmosphere and picturesque views at Plage Beni Khiar, the popular beach known for its serenity and beauty.
+Mid-Morning: Indulge in the local culinary delights at Grill Station, a renowned restaurant specializing in seafood dishes, praised for its generous portions and reasonable prices.
+Midday: Take a refreshing stroll through the quaint streets of Beni Khiar, exploring local markets and shops for souvenirs and traditional crafts.
+Afternoon: Immerse yourself in the maritime heritage at Port de Beni Khiar, a remarkable maritime port offering exceptional services.
+Evening: Savory the authentic flavors of Restaurante la voix de la mer, a seafood haven that showcases the freshest catches of the day, ensuring an unforgettable culinary experience.
+Night: Unwind and relax at the charming Waka Waka cafe, a cozy haven for coffee lovers offering a delightful selection of beverages and treats, perfect for unwinding and soaking in the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill Station, located in beni khiar (36.475302, 10.7851807), is a popular Restaurant with a 4.3 rating based on 29 reviews. It is known for its focus on fruits de mer, generous garnish, and competitive prices. Visit their website at https://www.facebook.com/Grill-station-1855632481210052/ for more information.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3279,13 +4391,58 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated bakery, head to Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. With a rating of 4.4 based on 17 reviews, it's a must-visit spot for bread lovers. 
-To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, visit the owner's website or call them at 92 422 215.</t>
+          <t>**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Beni khiar can you find a bakery renowned for its high ratings and customer praise?</t>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar, taking in the stunning coastal views and enjoying a swim or sunbathing.
+Mid-Morning: Visit the Port de Beni Khiar, exploring its amenities and admiring the local marine activity.
+Midday: Try local cuisine at Grill station, known for its fresh ingredients and generous portions.
+Afternoon: Enjoy a relaxing massage or spa treatment at Jinen Beni Khiar, rated 4.7 for its indulgent experience.
+Evening: Take a guided tour of Maison de campagne imed Aounallah, learning about its agricultural offerings and interacting with its friendly staff.
+Night: Experience cultural immersion at Coffee shop zahraoui, engaging with locals and enjoying authentic Tunisian ambiance.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3383,12 +4540,59 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria categories to choose from. With a rating of 4.7, it's a must-visit spot.To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/LA+BAMBA/data=!4m7!3m6!1s0x130299b21ed54aaf:0x2f1bb0297c36eba8!8m2!3d36.4644411!4d10.7833834!16s%2Fg%2F11flgfs71b!19sChIJr0rVHrKZAhMRqOs2fCmwGy8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated pizzeria located in Beni Khiar, known for its Pizzeria menu and boasting a rating of 4.7?</t>
+          <t>Day Plan:
+Morning: Explore the Plage Beni Khiar, a serene beach with breathtaking views. Take a leisurely walk, swim in the clear waters, or simply relax and soak up the sun.
+Mid-Morning: Visit the Port of Beni Khiar, a maritime hub with various services and facilities. Take a stroll along the dock or watch the fishing boats come and go.
+Midday: Try local cuisine at Restaurant La Casa Doro. Indulge in a delectable dining experience with a tantalizing menu that will satisfy your taste buds.
+Afternoon: Visit the nearby BiBi Terrasse, a highly-rated cafe with a cozy ambiance and a variety of food and drinks. Enjoy a refreshing beverage or a light snack while taking in the lively atmosphere.
+Evening: Head to Jinen Beni Khiar, a peaceful guesthouse with a 4.7 out of 5 rating. Unwind in a comfortable room and enjoy the tranquil surroundings.
+Night: Experience cultural immersion at the Maison de campagne imed Aounallah, an agricultural hub offering a wide range of services. Learn about traditional farming practices and participate in hands-on activities.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro, located in Beni Khiar, Tunisia, offers a delectable dining experience with a menu that will tantalize your taste buds. Conveniently situated at (36.5502451, 10.7267426), the restaurant boasts a warm and inviting ambiance. Its doors are open from Monday to Saturday from 10:00 to 21:30, so you can indulge in culinary delights any day of the week (except Sundays).
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3486,10 +4690,60 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Port de Beni Khiar located at Port de Beni Khiar, Beni Khiar. This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4542877, 10.7969189. For more details, visit their website at https://www.google.com/maps/place/Port+de+Beni+Khiar/data=!4m7!3m6!1s0x130298031e018cd9:0x8147a8266bb12566!8m2!3d36.4539605!4d10.797537!16s%2Fg%2F1v_sw73_!19sChIJ2YwBHgOYAhMRZiWxayaoR4E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr"/>
+          <t>Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar and enjoy swimming or sunbathing.
+Mid-Morning: Visit Port de Beni Khiar for panoramic views and learn about maritime trade.
+Midday: Try local cuisine at Restaurant La Casa Doro, known for its tantalizing menu and inviting ambiance.
+Afternoon: Visit Jinen Beni Khiar, a highly-rated chambre d'hôtes, and admire its beautiful surroundings.
+Evening: Relax with a spa treatment at Maison de campagne imed Aounallah for rejuvenation and pampering.
+Night: Experience the vibrant atmosphere of Cafe Ben brahim, savor local flavors, and enjoy live music if available.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro, located in Beni Khiar, Tunisia, offers a delectable dining experience with a menu that will tantalize your taste buds. Conveniently situated at (36.5502451, 10.7267426), the restaurant boasts a warm and inviting ambiance. Its doors are open from Monday to Saturday from 10:00 to 21:30, so you can indulge in culinary delights any day of the week (except Sundays).
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3581,14 +4835,58 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a delicious meal, check out Restaurant la voix de la mer located at FQ3X+V2C Restaurant la voix de la mer, Beni Khiar. 
-This top-rated destination is perfect for seafood lovers and offers a range of seafood dishes to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 45.19834, 0.35948.</t>
+          <t>Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated seafood restaurant in Beni Khiar, offering a wide selection of seafood dishes?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Plage Beni Khiar, with its crystal-clear waters and ample opportunities for swimming, sunbathing, and beach volleyball.
+Mid-Morning: Indulge in the authentic culinary delights of Restaurant la voix de la mer, savoring the freshest seafood catches in a charming seaside setting.
+Midday: Visit the historical Port de Beni Khiar, admiring its panoramic views of the Mediterranean Sea and learning about its significant role in maritime trade.
+Afternoon: Immerse yourself in culture at the Museum of Beni Khiar, showcasing the rich history and traditions of the region through captivating exhibits.
+Evening: Enjoy a delightful dinner at the renowned Grill station, known for its fresh ingredients, generous portions, and reasonable prices, while soaking up the vibrant atmosphere of the town.
+Night: Relax under the starry sky at the charming Gb@ lbndq bny khyr campsite, embracing the tranquility of the great outdoors while enjoying a bonfire or stargazing.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3688,10 +4986,66 @@
           <t>beni khiar</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>What unique destination offers breathtaking landscapes that have yet to be discovered by many travelers?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the Plage Beni Khiar for its serene atmosphere and breathtaking views.
+**Mid-Morning:**
+* Visit the Boulangerie Beni khiar for freshly baked goods.
+**Midday:**
+* Try local cuisine at La Pampa, known for its high rating and delicious food.
+**Afternoon:**
+* Take a guided tour of the Port de Beni Khiar to marvel at the panoramic sea views.
+**Evening:**
+* Participate in the cultural immersion at Restaurant la voix de la mer, specializing in fresh seafood.
+**Night:**
+* Relax with a peaceful stay at Jinen Beni Khiar, a highly-rated chambre d'hôtes.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Pampa is a restaurant located in Beni Khiar, with coordinates (36.454387640549, 10.785850418423). It has a rating of 4.4 based on 24 reviews and is open from 7am to 1pm and 5pm to 2am.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3793,13 +5147,58 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Maison de campagne, check out Jinene beni khiar located at FQ3F+9JQ Jinene beni khiar, Unnamed Road, Beni Khiar. 
-This beloved destination has a rating of 3.0 and is perfect for Maison de campagne lovers. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, visit their website at https://www.google.com/maps/place/Jinene+beni+khiar/data=!4m7!3m6!1s0x1302994e1ce2d723:0xd5295599bfe9a174!8m2!3d36.4534663!4d10.7741121!16s%2Fg%2F11fphj58q6!19sChIJI9fiHE6ZAhMRdKHpv5lVKdU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 192 286.</t>
+          <t>Located in Beni Khiar, Jinene beni khiar is a relaxing cottage that offers a peaceful and tranquil getaway. With a rating of 3.0 and only one review, this property might be a hidden gem worth exploring. Unfortunately, there is limited information available online about its amenities, facilities, or activities. To learn more about Jinene beni khiar, it is recommended to contact the owner directly.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Maison de campagne in beni khiar, praised by travelers?</t>
+          <t>Day Plan:
+Morning: Visit the Port de Beni Khiar (36.4542877, 10.7969189) for scenic views and a glimpse into the local fishing industry.
+Mid-Morning: Stroll through the Pepiniere Maamoura nursery (36.46499, 10.80612) to admire the beautiful plants and learn about local horticulture.
+Midday: Savor a delightful lunch of fresh seafood at Restaurant la voix de la mer, known for its authentic culinary experience (coordinates: 45.19834, 0.35948).
+Afternoon: Spend the afternoon sunbathing and swimming at the pristine Plage Beni Khiar, renowned for its clean sands and crystal-clear waters.
+Evening: Take a leisurely walk through the picturesque town of Beni Khiar, exploring its charming streets and local shops.
+Night: Indulge in a delicious dinner at CAPPELLO beni khiar, a highly-rated pizzeria offering an exceptional dining experience (open during the week).</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is known for its fresh ingredients, generous portions, and reasonable prices. It is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and is open from 10:00-01:00 every day.
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3901,12 +5300,58 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, call them at 92 422 215.</t>
+          <t>Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Question: Where in Beni Khiar can you indulge in a variety of delectable Boulangerie options, boasting an impressive rating of 4.4?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage Beni Khiar for its pristine sands and crystal-clear waters.
+Mid-Morning: Visit the CAPPELLO beni khiar to savor authentic Italian cuisine in a highly-rated dining experience.
+Midday: Take a guided tour of Port de Beni Khiar to learn about its renowned maritime services and enjoy stunning coastal views.
+Afternoon: Relax and rejuvenate with a spa treatment or leisurely swim at Jinen Beni Khiar, a highly-rated chambre d'hotes.
+Evening: Experience the vibrant atmosphere at "mqh~lblwr" cafe, known for its cozy ambiance and refreshing drinks.
+Night: Indulge in the freshest seafood at Restaurant la voix de la mer, specializing in the catch of the day.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+This cafe, "mqh~lblwr", is located in Beni Khiar, Tunisia (36.4724714, 10.7885366). It has a 5-star rating based on 2 reviews, and its popularity can be attributed to its specialization as a cozy spot for coffee and drinks. While its precise offerings and ambiance are unknown, it's situated in a convenient location, making it a worthwhile destination for a quick break or a casual gathering.
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4008,12 +5453,58 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a comfortable stay, check out Jinen Beni Khiar at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060. This top-rated destination is a must-visit spot for those seeking a peaceful and relaxing retreat. With its rating of 4.7 out of 5, it offers a range of amenities to make your stay memorable. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more information, call them at 98 312 948.</t>
+          <t>Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find Jinen Beni Khiar, a highly-rated destination with top-notch amenities, offering a peaceful and relaxing retreat?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port de Beni Khiar, admiring its impressive maritime services and taking in the beautiful surroundings.
+Mid-Morning: Visit the Food Station Beni Khiar, indulge in traditional Tunisian cuisine, and savor the flavors of the region.
+Midday: Head to Plage Beni Khiar, relax on the sandy beach, take a refreshing dip in the Mediterranean Sea, and soak up the sun.
+Afternoon: Participate in a guided tour of the Jinen Beni Khiar guest house, immerse yourself in its peaceful ambiance, and learn about its rich history.
+Evening: Explore the local market, shop for unique souvenirs, and engage with the friendly vendors.
+Night: Experience the vibrant atmosphere of Fennia Cafe, unwind with a cup of coffee, and connect with locals.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 10am to midnight, seven days a week. It is located at the coordinates (36.469386365975, 10.807021723363).
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4111,12 +5602,58 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a Plage, check out Plage Beni khiar located at Plage Beni khiar, Beni Khiar. This top-rated spot is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4544108, 10.785304. For more details, visit their link at https://www.google.com/maps/place/Plage+Beni+khiar/data=!4m7!3m6!1s0x130298133d9368ef:0x72b70addba56e0eb!8m2!3d36.451221!4d10.7785374!16s%2Fg%2F12hnfyj4w!19sChIJ72iTPROYAhMR6-BWut0Kt3I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Plage with a vast selection in Beni Khiar?</t>
+          <t>Day Plan:
+**Morning:** Explore Plage Beni Khiar (beach)
+**Mid-Morning:** Try local cuisine at Grill Station (restaurant)
+**Midday:** Visit Port de Beni Khiar (landmark)
+**Afternoon:** Enjoy beach volleyball at Plage Beni Khiar (recreational activity)
+**Evening:** Relax at Jinen Beni Khiar (guest house)
+**Night:** Participate in cultural immersion at a traditional music performance at Maison de campagne imed Aounallah (agricultural hub)</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill Station, located in beni khiar (36.475302, 10.7851807), is a popular Restaurant with a 4.3 rating based on 29 reviews. It is known for its focus on fruits de mer, generous garnish, and competitive prices. Visit their website at https://www.facebook.com/Grill-station-1855632481210052/ for more information.
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4214,12 +5751,64 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a port maritime, check out Port de Beni Khiar located at Port de Beni Khiar, Beni Khiar. With a rating of 4.6, this top-rated destination is a must-visit spot. To get there, use these GPS coordinates: (36.4542877, 10.7969189). For more details, visit their website at https://www.google.com/maps/place/Port+de+Beni+Khiar/data=!4m7!3m6!1s0x130298031e018cd9:0x8147a8266bb12566!8m2!3d36.4539605!4d10.797537!16s%2Fg%2F1v_sw73_!19sChIJ2YwBHgOYAhMRZiWxayaoR4E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated port maritime in Beni Khiar, boasting a 4.6 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the Port de Beni Khiar (45 minutes)
+**Mid-Morning:**
+* Enjoy local cuisine at The Wave café-Resto (1 hour)
+**Midday:**
+* Visit Plage Beni Khiar for swimming and sunbathing (2 hours)
+**Afternoon:**
+* Take a guided tour of the LA BAMBA pizzeria (1 hour)
+**Evening:**
+* Experience cultural immersion at Jinen Beni Khiar (1 hour)
+**Night:**
+* Relax with a massage or body treatment at a local spa (1 hour)</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4317,14 +5906,58 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Gb@ lbndq bny khyr located at FQ5M+R6W Gb@ lbndq bny khyr, Beni Khiar. 
-This top-rated destination is perfect for Terrain de camping lovers and offers a range of Terrain de camping to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: (36.4724714, 10.7885366).</t>
+          <t>Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>What is the unique attraction that makes Gb@ lbndq bny khyr in Beni Khiar a must-visit destination for Terrain de camping enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Boulangerie Beni Khiar for freshly baked pastries.
+Mid-Morning: Visit the Port of Beni Khiar to witness its maritime operations.
+Midday: Indulge in a delicious meal at Restaurant La Casa Doro, known for its delectable cuisine.
+Afternoon: Stroll along the scenic Plage Beni Khiar, enjoying the sun and sand.
+Evening: Visit Café Ilyes for a relaxing coffee break and savor the local ambiance.
+Night: Experience the lively atmosphere at LA BAMBA, a renowned Pizzeria offering authentic Italian flavors.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4422,12 +6055,64 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Plage Beni khiar! This top-rated destination is perfect for Plage lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.4544108, 10.785304. For more details, visit their website at https://www.google.com/maps/place/Plage+Beni+khiar/data=!4m7!3m6!1s0x130298133d9368ef:0x72b70addba56e0eb!8m2!3d36.451221!4d10.7785374!16s%2Fg%2F12hnfyj4w!19sChIJ72iTPROYAhMR6-BWut0Kt3I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Plage destination in beni khiar with a rating of 4.1 and GPS coordinates of 36.4544108, 10.785304?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the picturesque Plage Beni Khiar for a refreshing morning swim and sunbathing.
+**Mid-Morning:**
+- Visit Pepiniere Maamoura to browse its vibrant collection of plants.
+**Midday:**
+- Savor a delightful seafood lunch at Restaurant la voix de la mer.
+**Afternoon:**
+- Discover the historical significance of the Port de Beni Khiar.
+**Evening:**
+- Enjoy a leisurely walk along the charming coastal path.
+**Night:**
+- Relish the local culinary delights at Bouzid Cafe, known for its excellent food and 24-hour service.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4529,12 +6214,58 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Boulangerie, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. With a rating of 4.4, it's a must-visit spot for Boulangerie lovers. To get there, use these GPS coordinates: 36.46917, 10.78222. For more details, call them at 92 422 215.</t>
+          <t>Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Boulangerie with GPS coordinates 36.46917, 10.78222 and a phone number of 92 422 215 in Beni khiar?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Beni Khiar, enjoying its serene atmosphere and breathtaking views.
+Mid-Morning: Trying local cuisine at Grill station, known for its good food and service.
+Midday: Visiting the Port de Beni Khiar, offering a range of services and amenities.
+Afternoon: Relaxing with a coffee and pastries at the charming Waka Waka cafe.
+Evening: Enjoying a romantic dinner at Restaurant la voix de la mer, specializing in authentic seafood dishes.
+Night: Shopping for souvenirs at Pepiniere Maamoura, offering a wide range of plants and other items.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4632,15 +6363,58 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.5502451, 10.7267426. 
-For more details, visit their website at https://www.google.com/maps/place/LA+BAMBA/data=!4m7!3m6!1s0x130299b21ed54aaf:0x2f1bb0297c36eba8!8m2!3d36.4644411!4d10.7833834!16s%2Fg%2F11flgfs71b!19sChIJr0rVHrKZAhMRqOs2fCmwGy8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a vast selection of dishes, located in Beni Khiar with GPS coordinates of 36.5502451, 10.7267426?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage Beni Khiar, known for its serene atmosphere and breathtaking views. (36.4544108, 10.785304)
+Mid-Morning: Visit the highly-rated CAPPELLO beni khiar for an authentic Italian dining experience. (Coordinates not provided)
+Midday: Take a guided tour of the Port of Beni Khiar, a maritime port offering various services and facilities. (36.4542877, 10.7969189)
+Afternoon: Enjoy outdoor activities at Maison de campagne imed Aounallah, an agricultural hub with positive customer feedback. (36.4724714, 10.7885366)
+Evening: Relax with a spa treatment at the Jinen Beni Khiar, a chambre d'hotes with a 4.7 rating. (FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060)
+Night: Experience cultural immersion at the Restaurant la voix de la mer, specializing in seafood and offering an authentic dining experience. (Coordinates: 45.19834, 0.35948)</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a 4.3-rated restaurant located in beni khiar. It offers a wide range of food and drinks, and is open from 8:00am to 10:30pm every day of the week. The restaurant is located at (36.5502451, 10.7267426).
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).
+CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4738,12 +6512,65 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something to do, check out Port de Beni Khiar located at Beni Khiar. This top-rated destination is perfect for Port maritime lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4542877, 10.7969189. For more details, visit their website at https://www.google.com/maps/place/Port+de+Beni+Khiar/data=!4m7!3m6!1s0x130298031e018cd9:0x8147a8266bb12566!8m2!3d36.4539605!4d10.797537!16s%2Fg%2F1v_sw73_!19sChIJ2YwBHgOYAhMRZiWxayaoR4E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the top-rated Port maritime destination with GPS coordinates of 36.4542877, 10.7969189 located in Beni Khiar?</t>
+          <t>Day Plan:
+Morning:
+- Explore the serene Plage Beni Khiar, marveling at its breathtaking views.
+Mid-Morning:
+- Visit Pepiniere Maamoura, selecting vibrant plants for your garden.
+Midday:
+- Indulge in the local flavors at PAPA WES'S PIZZA, known for its delectable cuisine.
+Afternoon:
+- Engage in thrilling outdoor activities at Gb@ lbndq bny khyr, embracing the spirit of adventure.
+Evening:
+- Experience the traditional charm of Restaurant la voix de la mer, savoring the freshest seafood catches.
+Night:
+- Relax and unwind at Jinen Beni Khiar, immersing yourself in the tranquil ambiance of this guest house.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**PAPA WES'S PIZZA** is a highly rated (4/5) restaurant located in Beni Khiar, Tunisia (36.467164795132, 10.785382730321). This restaurant, open from 9 am to midnight, offers a wide range of food options. Its website is https://best--restaurants.blogspot.com/ and its phone number is 95 120 004.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4849,12 +6676,64 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Pepiniere Maamoura located at Pepiniere Maamoura, Beni Khiar. This top-rated destination is perfect for Pepiniere lovers and offers a range of Pepiniere to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:30-17:30. To get there, use these GPS coordinates: 36.46499, 10.80612. For more details, call them at 98 227 039.</t>
+          <t>Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly rated Pepiniere destination with a large selection to choose from?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Beni Khiar
+- Start your day by exploring the beautiful beach of Plage Beni Khiar. Take a refreshing swim, sunbathe on the clean sands, or indulge in various water activities.
+Mid-Morning: Trying local cuisine at The Wave Cafe-Resto
+- Head over to The Wave Cafe-Resto for a delightful dining experience. Savor the authentic flavors of Tunisian cuisine while enjoying the cozy ambiance.
+Midday: Visiting the Port of Beni Khiar
+- Take a break from the beach and visit the Port of Beni Khiar. Observe the maritime activities, take a stroll along the promenade, and capture the scenic views of the harbor.
+Afternoon: Enjoying scenic views at Jinen Beni Khiar
+- Escape the midday heat and seek solace at Jinen Beni Khiar, a charming chambre d'hotes. Admire the lush greenery, relax in the tranquil atmosphere, and soak in the panoramic views.
+Evening: Participating in a guided tour of the Medina of Beni Khiar
+- Immerse yourself in the historical and cultural heart of Beni Khiar by taking a guided tour of the Medina. Explore the narrow streets, admire the traditional architecture, and learn about the local customs.
+Night: Experiencing cultural immersion at a traditional Tunisian music performance
+- Conclude your day with a memorable cultural experience by attending a traditional Tunisian music performance. Listen to the captivating melodies, witness the vibrant dance moves, and delve into the rich musical heritage of the region.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4956,12 +6835,60 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a place to stay, check out Jinen Beni Khiar located at Rue de, Beni Khiar 8060. 
-This top-rated destination is perfect for Chambre d'hotes lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, call them at 98 312 948.</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr"/>
+          <t>Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the historical Port de Beni Khiar (Coordinates: 36.4542877, 10.7969189)
+Mid-Morning: Visit the Pepiniere Maamoura nursery (Coordinates: 36.46499, 10.80612) to admire the diverse plant collection.
+Midday: Savor a delightful lunch at The Wave cafe-Resto (Coordinates: 36.5502451, 10.7267426), known for its culinary delights.
+Afternoon: Take a scenic stroll along Plage Beni Khiar (Coordinates: 36.4544108, 10.785304) and enjoy the refreshing beach atmosphere.
+Evening: Engage in outdoor activities such as beach volleyball or swimming at Plage Beni Khiar.
+Night: Experience the lively ambiance of LA BAMBA Pizzeria (Coordinates: 36.5502451, 10.7267426), savoring its delicious pizzas and enjoying the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a restaurant located in Beni khiar, Tunisia, offering a delightful dining experience. It is situated at coordinates (36.5502451, 10.7267426), inviting you to savor its culinary delights with a 4.3-star rating based on 3 reviews. Its operating hours are from 08:00 to 22:30, and it's easily accessible via its website and Facebook page.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5065,14 +6992,58 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Maison de campagne imed Aounallah located at FQ5M+R6W Maison de campagne imed Aounallah, Beni Khiar. 
-This top-rated destination is perfect for Agriculteur lovers and offers a range of Agriculteur to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on none. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at https://www.google.com/maps/place/Maison+de+campagne+imed+Aounallah/data=!4m7!3m6!1s0x1302993caeca5d41:0x87dfcd0aa1a19678!8m2!3d36.4596214!4d10.7830826!16s%2Fg%2F11fkt82kdv!19sChIJQV3KrjyZAhMReJahoQrN34c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 573 363.</t>
+          <t>Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a 5.0 rating specializing in Agriculteur, located in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the Port de Beni Khiar (36.4542877, 10.7969189).
+Mid-Morning: Visit Jinen Beni Khiar (36.469386365975, 10.807021723363) for a guided tour and experience cultural immersion.
+Midday: Have lunch at Restaurant La casa doro (36.5502451, 10.7267426), known for its delightful dining experience.
+Afternoon: Enjoy scenic views and relax at Plage Beni Khiar (36.4544108, 10.785304).
+Evening: Dine at LA BAMBA, a highly-rated pizzeria (4.7/5) for an authentic local cuisine experience.
+Night: Participate in a stargazing event at the Maison de campagne imed Aounallah (36.4724714, 10.7885366).</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La casa doro is a popular restaurant located in beni khiar, Tunisia (coordinates 36.5502451, 10.7267426). The restaurant offers a delightful dining experience, earning a respectable rating of 4.1 out of 5 stars from previous patrons. It operates during the following hours: 10:00-21:30, and remains closed on sundays.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5174,12 +7145,58 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great place to get your bread, check out Beni khiar located at FQ5M+V7J Beni khiar, Beni Khiar. This top-rated bakery is perfect for bread lovers and offers a range of breads to choose from. With a rating of 4.4, it's a must-visit spot for bread enthusiasts. To get there, use these GPS coordinates: (36.46917, 10.78222). For more details, visit their website at https://www.google.com/maps/place/B%C3%A9ni+khiar/data=!4m7!3m6!1s0x1302994ac71f8365:0x6df2771204525209!8m2!3d36.4597097!4d10.7831324!16s%2Fg%2F11qbvnqgc6!19sChIJZYMfx0qZAhMRCVJSBBJ38m0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 422 215.</t>
+          <t>**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated bakery in Beni Khiar known for its exceptional bread offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Port de Beni Khiar (36.4542877, 10.7969189) for its scenic views and convenient amenities.
+Mid-Morning: Visit Jinen Beni Khiar (36.469386365975, 10.807021723363) for a peaceful stay and authentic Tunisian hospitality.
+Midday: Indulge in local cuisine at Food Station Beni Khiar (36.469386365975, 10.807021723363), which offers a diverse menu ranging from traditional Tunisian dishes to international fare.
+Afternoon: Escape to Plage Beni Khiar (36.4544108, 10.785304) for a relaxing afternoon filled with swimming, sunbathing, and beach volleyball. Relish in the picturesque surroundings and soak up the coastal ambiance.
+Evening: Experience cultural immersion at one of Beni Khiar's bakeries, such as "Beni Khiar" (36.46917, 10.78222), known for its delectable offerings and warm ambiance. Immerse yourself in the local culinary traditions.
+Night: Wind down at Cafe Ben brahim (36.4724714, 10.7885366) for a cozy evening with refreshing beverages and light refreshments. Engage in lively conversations with locals and soak up the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 10am to midnight, seven days a week. It is located at the coordinates (36.469386365975, 10.807021723363).
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5277,12 +7294,58 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out LA BAMBA located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at  or call them at.</t>
+          <t>LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly-rated pizzeria, perfect for a memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port de Beni Khiar (Port of Beni Khiar) and learn about its significance to the region.
+Mid-Morning: Visit the bustling market in Beni Khiar and immerse yourself in the vibrant local atmosphere.
+Midday: Indulge in authentic seafood cuisine at Restaurant la voix de la mer, known for its fresh catches and authentic culinary experience.
+Afternoon: Relax and soak up the sun at the beautiful Plage Beni Khiar, enjoying the serene atmosphere and breathtaking views of the Mediterranean Sea.
+Evening: Take a romantic stroll along the picturesque shores of Plage Beni Khiar, capturing the magical sunset hues and enjoying the coastal ambiance.
+Night: Head to Cappello beni khiar, a pizzeria renowned for its delectable pizzas, to satisfy your cravings and end the day on a savory note.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe Ben brahim is a cafe located in beni khiar at the following coordinates : (36.4724714, 10.7885366). It is openfrom 03:30 to 23:00 all days of the week. It has a rating of 4.2 and 14 reviews. It offers the following category : Cafe.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5384,14 +7447,58 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Jinen Beni Khiar located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, visit their link at https://www.google.com/maps/place/Jinen+Beni+Khiar/data=!4m7!3m6!1s0x1302995bc1aa68b3:0xfb02888923d82a2c!8m2!3d36.453007!4d10.7768043!16s%2Fg%2F11j7g6ftv1!19sChIJs2iqwVuZAhMRLCrYI4mIAvs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 312 948.</t>
+          <t>Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Chambre d'hotes destination with specific GPS coordinates in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Beni Khiar market, sampling local delicacies.
+Mid-Morning: Visit the highly-rated LA BAMBA pizzeria for a delectable pizza experience.
+Midday: Take a leisurely walk along Plage Beni Khiar, enjoying the sun and surf.
+Afternoon: Discover the historic Port de Beni Khiar, admiring its maritime charm.
+Evening: Relish an authentic seafood dinner at Restaurant la voix de la mer.
+Night: Relax and rejuvenate at Jinen Beni Khiar, an exceptional chambre d'hôtes.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is open from 10:00am to 1:00am, and is closed on Sundays. Grill station is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and can be contacted at 23 312 754.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5501,14 +7608,64 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for a great restaurant, check out Grill Station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. 
-This top-rated spot offers a range of dishes to choose from, perfect for restaurant lovers. 
-With a rating of 4.3, it's a must-visit place. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is open from 10:00am to 1:00am, and is closed on Sundays. Grill station is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and can be contacted at 23 312 754.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly-rated restaurant with a wide variety of menu options, located near a Carrefour?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling streets of Beni Khiar, where you can discover local shops and markets.
+**Mid-Morning:**
+* Indulge in a traditional Tunisian breakfast at Restaurant la voix de la mer, savoring the freshest seafood delicacies.
+**Midday:**
+* Visit the picturesque Plage Beni Khiar, where you can relax on the pristine sands and admire the crystal-clear waters.
+**Afternoon:**
+* Embark on a guided tour of Port de Beni Khiar, learning about the maritime history of the region.
+**Evening:**
+* Enjoy a romantic dinner at Jinen Beni Khiar, a highly-rated chambre d'hôtes offering exceptional dining experiences.
+**Night:**
+* Experience the vibrant nightlife of Beni Khiar at Fennia Cafe, where you can mingle with locals and enjoy live music.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station, located in beni khiar is a restaurant rated 4.3 out of 5 stars with 29 reviews. It is a popular spot for seafood, and offers a variety of side dishes. The restaurant is open from 10:00 to 01:00, and is closed on . The phone number is 23 312 754.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5614,12 +7771,58 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great meal, check out La Pampa located at FQ3P+FRP La Pampa, Av. de la Liberte. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-13:00, 17:00-02:00. To get there, use these GPS coordinates: 36.454387640549, 10.785850418423. For more details, visit their website at https://www.google.com/maps/place/La+Pampa/data=!4m7!3m6!1s0x1302993b8ce6b9f5:0xd31cc0791a1de880!8m2!3d36.4537221!4d10.7870887!16s%2Fg%2F11f72jpdj_!19sChIJ9bnmjDuZAhMRgOgdGnnAHNM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 003 922.</t>
+          <t>La Pampa is a restaurant located in Beni Khiar, with coordinates (36.454387640549, 10.785850418423). It has a rating of 4.4 based on 24 reviews and is open from 7am to 1pm and 5pm to 2am.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Beni Khiar, known for its range of dining options and exceptional service?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage Beni Khiar, known for its serene atmosphere and breathtaking views.
+Mid-Morning: Visit the Port de Beni Khiar, renowned for its exceptional maritime services.
+Midday: Indulge in local cuisine at the highly-rated PAPA WES'S PIZZA, offering a variety of dishes and cuisines.
+Afternoon: Discover the cultural heritage of the region at the Maison de campagne imed Aounallah, an agricultural hub specializing in agriculture.
+Evening: Experience the vibrant atmosphere of LA BAMBA, a Pizzeria known for its authentic Italian flavors.
+Night: Relax and unwind at Jinen Beni Khiar, a guest house offering a peaceful stay with a highly-rated atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+PAPA WES'S PIZZA is a restaurant located in beni khiar, offering a variety of dishes and cuisines. It is situated at the coordinates (36.467164795132, 10.785382730321) and is open from 9:00 AM to midnight during weekdays. The restaurant has received 13 reviews and has a rating of 4.0.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Coffee shop zahraoui is a cafe located in beni khiar, with a rating of 5.0 based on 2 reviews. Its exact location is at (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5725,14 +7928,58 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Restaurant La casa doro located at FQGQ+48P Restaurant La casa doro, Route korba, Beni Khiar 8060. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+casa+doro/data=!4m7!3m6!1s0x1302a2baac91648f:0x6e935ccfcbbd9878!8m2!3d36.4753281!4d10.7883138!16s%2Fg%2F11c30x754b!19sChIJj2SRrLqiAhMReJi9y89ck24?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 070 718.</t>
+          <t>Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant in Beni Khiar, offering a diverse menu and a rating of 4.1?</t>
+          <t>Day Plan:
+Morning: Explore Port de Beni Khiar, a bustling port offering panoramic sea views.
+Mid-Morning: Visit Pepiniere Maamoura to browse its diverse nursery and chat with the friendly staff.
+Midday: Dine at Grill station restaurant, known for its seafood and grilled meats.
+Afternoon: Relax on the shores of Plage Beni Khiar, known for its serene atmosphere and breathtaking views.
+Evening: Experience the cultural immersion at Jinen Beni Khiar, a renowned chambre d'hôtes that offers an authentic dining experience.
+Night: Unwind at LA BAMBA, a highly-rated pizzeria that serves delicious pizzas.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including seafood, grilled meats, and vegetarian options. The restaurant is open from 10:00am to 1:00am, and is closed on Sundays. Grill station is located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri, and can be contacted at 23 312 754.
+Beni khiar is a bakery located in beni khiar, Tunisia. It offers a wide variety of breads, pastries, and cakes. It is located at (36.46917, 10.78222).
+Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5842,12 +8089,58 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out PAPA WES'S PIZZA located at 17 Av. Ahmed Tlili, Beni Khiar. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.467164795132, 10.785382730321. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 95 120 004.</t>
+          <t>PAPA WES'S PIZZA is a restaurant located in beni khiar, offering a variety of dishes and cuisines. It is situated at the coordinates (36.467164795132, 10.785382730321) and is open from 9:00 AM to midnight during weekdays. The restaurant has received 13 reviews and has a rating of 4.0.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where is the highly-rated restaurant with a diverse menu located in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore the scenic views at Plage Beni Khiar.
+Mid-Morning: Try local cuisine at the highly-rated I,ROLL restaurant.
+Midday: Visit the bustling Port de Beni Khiar for panoramic sea views.
+Afternoon: Enjoy the beach atmosphere and engage in water activities at Plage Beni Khiar.
+Evening: Indulge in delicious pizzas at the popular LA BAMBA pizzeria.
+Night: Experience the lively ambiance of Cafe Ilyes for a relaxing evening.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+I,ROLL, located in Beni Khiar at coordinates 36.458789637547, 10.78665418903, is a highly rated restaurant (5.0 stars) with one review. Our information is limited as there is no available description, website, or contact details. However, based on the name "I,ROLL," one can speculate that it may specialize in rolled dishes such as sushi or wraps.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5945,12 +8238,58 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you find yourself in beni khiar and are looking for an excellent Pizzeria, be sure to visit LA BAMBA. Located at FQ7M+Q9C LA BAMBA, shr` lbyy'@, Beni Khiar 8060, this top-rated destination has a rating of 4.7, making it a must-visit spot. It offers a range of Pizzeria to choose from and is open during hours that are not specified. To get there, use these GPS coordinates: (36.5502451, 10.7267426).</t>
+          <t>LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria with the GPS coordinates (36.5502451, 10.7267426) in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Exploring beni khiar (Visit the port, take a guided tour of the historical sites).
+Mid-Morning: Trying local cuisine (Have breakfast at CASA CAFE ISMAIL (Cafe de la Plage)).
+Midday: Enjoying the sun and the beach (Relax at Plage Beni Khiar).
+Afternoon: Relaxing at a local spa (Go for a massage at jinen beni khiar).
+Evening: Shopping in the local market (Visit the market in the center of the city).
+Night: Participating in a traditional music event (Attend a show at LA BAMBA).</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mT`m lsh`b Bk** is a restaurant located in Beni Khiar, Tunisia. It is rated 4.8 out of 5 stars on Google and has a featured image of the restaurant's entrance. The restaurant is open from 6:00 AM to 1:00 PM and is closed on Fridays. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at FQ9J+PHC mT`m lsh`b Bk, Beni Khiar, Tunisia. The coordinates are 36.4724714, 10.7885366.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Located in Beni Khiar, CASA CAFE ISMAIL (Cafe de la Plage) is a cafe and restaurant offering a wide range of services. It is located at the coordinates (36.454387640549, 10.785850418423). The cafe is open from 6:00 AM to midnight, with a rating of 3.8 out of 5 stars based on 140 reviews. It has a featured image, website, and contact information available.
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6056,12 +8395,58 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Food Station Beni Khiar located at Rue de l'environnement 8060, Beni Khiar. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but there's no information on when it's closed. To get there, use these GPS coordinates: 36.469386365975, 10.807021723363. For more details, visit their website at https://www.google.com/maps/place/Food+Station+Beni+Khiar/data=!4m7!3m6!1s0x1302a2a761c9ea81:0xc2306996f4d7ee5b!8m2!3d36.4648573!4d10.7848384!16s%2Fg%2F11gh04rrxs!19sChIJgerJYaeiAhMRW-7X9JZpMMI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 829 112.</t>
+          <t>Food Station Beni Khiar is a restaurant located at Beni Khiar, Tunisia. It's a popular place to go for a meal, offering a variety of dishes to choose from. The restaurant is open from 10:00 AM to 12:00 AM, and is closed on Fridays. It has a rating of 4.0 out of 5 on Google, with over 5 reviews.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant with a wide selection in Beni Khiar, renowned for its culinary delights?</t>
+          <t>Day Plan:
+Morning: Start the day with a guided tour of Plage Beni Khiar, a captivating beach renowned for its tranquil atmosphere and picturesque views. Capture the mesmerizing beauty of the coastline and immerse yourself in the serenity of this natural wonder.
+Mid-Morning: Take a leisurely stroll through the bustling streets of Beni Khiar. Discover hidden gems, interact with the friendly locals, and soak up the authentic ambiance of this charming town.
+Midday: Satisfy your taste buds with lunch at Restaurant La Casa D'Oro, where delectable Tunisian cuisine awaits. Indulge in the tantalizing flavors of traditional dishes, sure to leave your palate craving more.
+Afternoon: Visit the intriguing Port de Beni Khiar, a strategic and vibrant harbor hosting a myriad of vessels. Admire the grandeur of the docked boats, witness the lively atmosphere, and uncover the historical significance of this maritime hub.
+Evening: Venture into the heart of the town to experience the vibrant cultural offerings of Beni Khiar. Attend a traditional musical performance, immerse yourself in the mesmerizing rhythms, and witness the skillful artistry of local musicians.
+Night: Conclude the day with a memorable dinner at CAPPELLO beni khiar, a reputable pizzeria renowned for its authentic Italian flavors. Relish mouthwatering pizzas in a convivial atmosphere, savoring the delectable creations of this culinary haven.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La casa doro is a popular restaurant located in beni khiar, Tunisia (coordinates 36.5502451, 10.7267426). The restaurant offers a delightful dining experience, earning a respectable rating of 4.1 out of 5 stars from previous patrons. It operates during the following hours: 10:00-21:30, and remains closed on sundays.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Waka Waka, located in beni khiar, is a delightful cafe. Its convenient location at coordinates (36.46798, 10.75167) makes it easily accessible. The cafe's main focus is on providing a warm and inviting atmosphere for its customers, who can enjoy refreshments and relax in a cozy setting. With a rating of 5.0, Waka Waka has earned high praise from its patrons, highlighting the excellent experience it offers.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6167,16 +8552,58 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you happen to be in beni khiar and looking for a highly-rated restaurant, check out mT`m lsh`b Bk. 
-With 4.8 stars out of 5, this top-rated restaurant is located at FQ9J+PHC mT`m lsh`b Bk. 
-It is the perfect choice for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-It is open during these hours: 06:00-13:00, but closed on unspecified days. 
-To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, call them at 53 133 305.</t>
+          <t>**mT`m lsh`b Bk** is a restaurant located in Beni Khiar, Tunisia. It is rated 4.8 out of 5 stars on Google and has a featured image of the restaurant's entrance. The restaurant is open from 6:00 AM to 1:00 PM and is closed on Fridays. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at FQ9J+PHC mT`m lsh`b Bk, Beni Khiar, Tunisia. The coordinates are 36.4724714, 10.7885366.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 4.8-star rating in beni khiar?</t>
+          <t>Day Plan:
+Morning: Explore the Port de Beni Khiar (36.4542877, 10.7969189) and learn about its history and significance.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Food Station Beni Khiar, known for its authentic dishes and international fare.
+Midday: Visit the beautiful Plage Beni Khiar, relax on its pristine sands, and enjoy swimming in its crystal-clear waters.
+Afternoon: Embark on a guided tour of Maison de campagne imed Aounallah, an agricultural hub offering insights into local farming practices.
+Evening: Experience the lively atmosphere of Bouzid Cafe, a highly-rated spot offering a wide selection of food and drinks.
+Night: Unwind with a relaxing stay at Jinen Beni Khiar, a guest house with a cozy ambiance and warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Food Station Beni Khiar is a restaurant located in Beni Khiar, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 10am to midnight, seven days a week. It is located at the coordinates (36.469386365975, 10.807021723363).
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6274,14 +8701,59 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great fast food spot, check out Fast Food Haythem located at Fast Food Haythem, 20-26, shr` lHbyb bwrqyb@, Beni Khiar. 
-This top-rated destination is perfect for fast food lovers and offers a range of fast food to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly rated fast food spot called Fast Food Haythem, known for its exceptional rating and diverse menu?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port de Beni Khiar (coordinates: 36.4542877, 10.7969189) and learn about its maritime significance.
+Mid-Morning: Indulge in a delightful breakfast at The Wave cafe-Resto (coordinates: 36.5502451, 10.7267426), enjoying its highly-rated cuisine.
+Midday: Visit the scenic Plage Beni Khiar (coordinates: 36.4544108, 10.785304), relax on its serene shores, and soak up the breathtaking views.
+Afternoon: Embark on a rejuvenating afternoon at Jinen Beni Khiar, a charming chambre d'hôtes (coordinates: 36.469386365975, 10.807021723363), and indulge in its tranquil atmosphere.
+Evening: Experience the vibrant ambiance of BiBi Terrasse (coordinates: 36.4724714, 10.7885366), savor its delectable offerings, and enjoy the lively atmosphere.
+Night: Dance the night away at LA BAMBA (coordinates: 36.5502451, 10.7267426), renowned for its delicious pizzas and lively ambiance, making for a memorable end to the day.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a 4.3-rated restaurant located in beni khiar. It offers a wide range of food and drinks, and is open from 8:00am to 10:30pm every day of the week. The restaurant is located at (36.5502451, 10.7267426).
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6391,14 +8863,58 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out The Wave cafe-Resto located at beach, Beni khiar, Benikhiar 8060. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:30. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100094180868711%26mibextid%3DLQQJ4d or call them at 92 721 295.</t>
+          <t>The Wave cafe-Resto is a 4.3-rated restaurant located in beni khiar. It offers a wide range of food and drinks, and is open from 8:00am to 10:30pm every day of the week. The restaurant is located at (36.5502451, 10.7267426).</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly-rated restaurant destination offering a variety of dining options?</t>
+          <t>Day Plan:
+Morning: Explore Beni Khiar Beach, soak up the sun, and enjoy the crystal-clear waters.
+Mid-Morning: Visit the bustling market of Souk beni khiar to discover local crafts, spices, and souvenirs.
+Midday: Indulge in a delicious meal of pizza at CAPPELLO beni khiar, renowned for its authentic Italian flavors.
+Afternoon: Explore the quaint streets of Beni Khiar, visit the charming bakery Beni Khiar for freshly baked treats, and immerse yourself in the local culture.
+Evening: Relax and unwind at Cafe Ilyes, enjoy a refreshing drink, and savor the lively atmosphere.
+Night: Experience the vibrant nightlife of Beni Khiar, dance the night away at a local club, and enjoy the electric atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+PAPA WES'S PIZZA is a restaurant located in beni khiar, offering a variety of dishes and cuisines. It is situated at the coordinates (36.467164795132, 10.785382730321) and is open from 9:00 AM to midnight during weekdays. The restaurant has received 13 reviews and has a rating of 4.0.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia, at the coordinates (36.470294891144, 10.781653705417). It is open 24 hours a day and offers a variety of food and drinks. The cafe has a rating of 4.0 out of 5 stars on Google reviews.
+CAPPELLO beni khiar is a Pizzeria located on Rue Fadhel Ben Achour in beni khiar. It focuses on providing Pizza, is rated 5.0 on Google and is owned by CAPPELLO beni khiar (proprietaire). It has 2 reviews and is located at the coordinates (36.46917, 10.78222).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6496,12 +9012,58 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out CAPPELLO beni khiar located at FQ7H+68V CAPPELLO beni khiar, Rue Fadhel Ben Achour, Beni Khiar. This top-rated destination is perfect for Pizzeria lovers and has a rating of 5.0. For more details, visit their website at https://www.google.com/maps/place/CAPPELLO+beni+khiar/data=!4m7!3m6!1s0x1302990040dd0fc5:0x460909332633aefc!8m2!3d36.4631066!4d10.7782584!16s%2Fg%2F11vjtbq543!19sChIJxQ_dQACZAhMR_K4zJjMJCUY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>CAPPELLO beni khiar is a highly-rated pizzeria located in beni khiar. This Italian restaurant, open during the week, offers a great dining experience as noted by its 5.0 rating.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria destination with a 5.0 rating in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage Beni Khiar, renowned for its pristine sands and crystal-clear waters. Enjoy swimming, sunbathing, and taking in the stunning coastal views.
+Mid-Morning: Try local cuisine at PAPA WES'S PIZZA, a highly rated restaurant offering a wide range of food options.
+Midday: Visit the Port of Beni Khiar, a maritime port offering various services and facilities.
+Afternoon: Engage in outdoor activities at Maison de campagne imed Aounallah, an agricultural hub offering a range of services.
+Evening: Experience cultural immersion at LA BAMBA, a pizzeria with a 4.7/5 rating, offering a unique dining experience.
+Night: Relax with a scenic view at Jinen Beni Khiar, a guest house offering a 4.7-star rating and a guest-friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**PAPA WES'S PIZZA** is a highly rated (4/5) restaurant located in Beni Khiar, Tunisia (36.467164795132, 10.785382730321). This restaurant, open from 9 am to midnight, offers a wide range of food options. Its website is https://best--restaurants.blogspot.com/ and its phone number is 95 120 004.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+This cafe, "mqh~lblwr", is located in Beni Khiar, Tunisia (36.4724714, 10.7885366). It has a 5-star rating based on 2 reviews, and its popularity can be attributed to its specialization as a cozy spot for coffee and drinks. While its precise offerings and ambiance are unknown, it's situated in a convenient location, making it a worthwhile destination for a quick break or a casual gathering.
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6603,14 +9165,58 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Fastfood Beni Beni located at 165-153 shr` lHbyb bwrqyb@. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 0.494142, 29.4700961. For more details, visit their website at https://www.google.com/maps/place/Fastfood+B%C3%A9ni+B%C3%A9ni/data=!4m7!3m6!1s0x1302a3dbc2d8436f:0x117648aa878434af!8m2!3d36.4656583!4d10.7768372!16s%2Fg%2F11j4vhnlm_!19sChIJb0PYwtujAhMRrzSEh6pIdhE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where is this top-rated destination known for its Restauration rapide and a 5.0 rating located in Beni khiar?</t>
+          <t>Day Plan:
+Morning: Explore the Plage Beni Khiar (36.4544108, 10.785304), a popular tourist destination with swimming, sunbathing, and beach volleyball.
+Mid-Morning: Try local cuisine at The Wave Cafe-Resto (36.5502451, 10.7267426), known for its wide range of food and drinks.
+Midday: Visit the Port de Beni Khiar (36.4542877, 10.7969189), a popular spot among visitors, offering a range of services and amenities.
+Afternoon: Enjoy the scenic views at the agricultural hub of Maison de campagne Imed Aounallah (36.4724714, 10.7885366).
+Evening: Immerse in the local culture at the Jinen Beni Khiar (36.469386365975, 10.807021723363), a highly-rated chambre d'hôtes offering an authentic dining experience.
+Night: Relax with a stay at the highly-rated Gb@ lbndq bny khyr (36.4724714, 10.7885366), a campsite perfect for enjoying the outdoors.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Wave cafe-Resto is a 4.3-rated restaurant located in beni khiar. It offers a wide range of food and drinks, and is open from 8:00am to 10:30pm every day of the week. The restaurant is located at (36.5502451, 10.7267426).
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6700,12 +9306,58 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Beni Khiar and looking for something fun, check out fatayer hamed ounaissa. It's a top-rated destination with a rating of 5.0, perfect for nan lovers. They offer a range of categories to choose from. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>Fatayer Hamed Ounaissa is a highly-rated eatery located in Beni Khiar, Tunisia. Its exact location is 36.4724714 latitude and 10.7885366 longitude. This small restaurant has garnered 5 stars based on a single review.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated fatayer destination with a perfect rating in Beni Khiar?</t>
+          <t>Day Plan:
+Morning: Explore Plage Beni Khiar, a picturesque beach with swimming, sunbathing, and beach volleyball opportunities.
+Mid-Morning: Visit Jinen Beni Khiar, a peaceful guest house, and enjoy a guided tour of its serene surroundings.
+Midday: Treat your taste buds to the authentic seafood delicacies at Restaurant la voix de la mer.
+Afternoon: Venture into Maison de campagne imed Aounallah, an agricultural hub, and gain insights into its farming practices.
+Evening: Experience the vibrant ambiance of LA BAMBA, a highly-rated pizzeria, while savoring its delicious pizzas.
+Night: Immerse yourself in the local culture by taking a guided tour of Port de Beni Khiar, a renowned maritime port.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+I,ROLL, located in Beni Khiar at coordinates 36.458789637547, 10.78665418903, is a highly rated restaurant (5.0 stars) with one review. Our information is limited as there is no available description, website, or contact details. However, based on the name "I,ROLL," one can speculate that it may specialize in rolled dishes such as sushi or wraps.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6803,12 +9455,58 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a top-rated Restaurant, check out I,ROLL located at FQ6P+568 I,ROLL, Av. 14 Janvier 2011, Beni Khiar. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.458789637547, 10.78665418903. For more details, visit their website at https://www.google.com/maps/place/I,ROLL/data=!4m7!3m6!1s0x1302992d7f57feaf:0x2724a2185d1e3561!8m2!3d36.460749!4d10.785228!16s%2Fg%2F11vj6xh1h1!19sChIJr_5Xfy2ZAhMRYTUeXRiiJCc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>I,ROLL, located in Beni Khiar at coordinates 36.458789637547, 10.78665418903, is a highly rated restaurant (5.0 stars) with one review. Our information is limited as there is no available description, website, or contact details. However, based on the name "I,ROLL," one can speculate that it may specialize in rolled dishes such as sushi or wraps.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant can be found in Beni Khiar with GPS coordinates 36.458789637547, 10.78665418903?</t>
+          <t>Day Plan:
+Morning: Explore the Port de Beni Khiar
+Mid-Morning: Try local cuisine at La Pampa
+Midday: Relax on the beach at Plage Beni Khiar
+Afternoon: Visit the historic Restaurant la voix de la mer
+Evening: Enjoy a scenic dinner at Beni Khiar
+Night: Take a relaxing walk along the shore of Plage Beni Khiar</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Pampa is a restaurant located in Beni Khiar, with coordinates (36.454387640549, 10.785850418423). It has a rating of 4.4 based on 24 reviews and is open from 7am to 1pm and 5pm to 2am.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6906,12 +9604,58 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out fahmi fast food located at fahmi fast food, 55 shr` lHbyb bwrqyb@, Beni Khiar 8060. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>Fahmi Fast Food is a restaurant located in Beni Khiar, Tunisia. It offers a variety of food options, and is highly rated by its customers. The restaurant is located at the coordinates (36.5502451, 10.7267426).</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you visit a highly-rated Restaurant destination known for its Restaurant that's perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Visit the Port of Beni Khiar for a glimpse into the maritime activities and facilities.
+Mid-Morning: Explore the serene Plage Beni Khiar, enjoying a refreshing swim or sunbathing on the golden sands.
+Midday: Savor the authentic flavors of seafood at Restaurant La Voix de la Mer, known for its fresh catches and authentic dining experience.
+Afternoon: Discover the agricultural hub of Maison de Campagne Imed Aounallah, witnessing the diverse range of services offered.
+Evening: Indulge in delicious local cuisine at Grill Station, renowned for its grilled meats and seafood, while enjoying the lively atmosphere.
+Night: Unwind and relax at Jinen Beni Khiar, a charming chambre d'hôtes, and soak in the tranquility of its surroundings.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Bouzid Cafe is a 5-star rated cafe located in beni khiar, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (36.5502451, 10.7267426).
+LA BAMBA is a Pizzeria located in beni khiar (lon: 10.7267426, lat: 36.5502451) and currently has a 4.7/5 rating based on 10 reviews.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port of Beni Khiar, located at coordinates (36.4542877, 10.7969189) in Beni Khiar, Tunisia, is a port with a 4.6 rating based on 9 reviews. It is a maritime port that offers various services and facilities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7021,12 +9765,64 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a great place to eat, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. This top-rated restaurant is perfect for seafood lovers and offers a range of dishes to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill Station, located in beni khiar (36.475302, 10.7851807), is a popular Restaurant with a 4.3 rating based on 29 reviews. It is known for its focus on fruits de mer, generous garnish, and competitive prices. Visit their website at https://www.facebook.com/Grill-station-1855632481210052/ for more information.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated seafood restaurant in Beni Khiar, Tunisia?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Plage Beni Khiar: Take a stroll along the scenic beach (4.1 rating) at the breathtaking coordinates of (36.4544108, 10.785304), immersing yourself in the tranquility of nature.
+Mid-Morning:
+- Trying local cuisine at PAPA WES'S PIZZA: Delight your palate with the highly rated (4/5) pizzeria experience at PAPA WES'S PIZZA. Located at (36.467164795132, 10.785382730321), this hidden gem serves a wide range of delectable dishes, leaving your taste buds tantalized.
+Midday:
+- Visiting Port de Beni Khiar: Witness the maritime grandeur of Port de Beni Khiar (4.6 rating) at coordinates (36.4542877, 10.7969189). Capture the captivating views of the Mediterranean Sea while observing the bustling activities of this vibrant port.
+Afternoon:
+- Relaxing with a spa treatment at Jinen Beni Khiar: Pamper yourself with a rejuvenating spa experience at the highly esteemed Jinen Beni Khiar (4.7 rating). Nestled amidst serene surroundings at coordinates (36.469386365975, 10.807021723363), this haven of tranquility offers an escape from the hustle and bustle.
+Evening:
+- Trying local cuisine at LA BAMBA: Embark on a culinary adventure at LA BAMBA (4.7 rating), renowned for its exquisite pizzas. Located at coordinates (36.5502451, 10.7267426), this pizzeria promises an authentic Italian dining experience, tantalizing your taste buds with every bite.
+Night:
+- Enjoying scenic views at Plage Beni Khiar: As the day draws to a close, return to Plage Beni Khiar to savor the captivating sunset views. Witness the sky transform into a canvas of vibrant hues, creating a breathtaking end to your adventurous day.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**PAPA WES'S PIZZA** is a highly rated (4/5) restaurant located in Beni Khiar, Tunisia (36.467164795132, 10.785382730321). This restaurant, open from 9 am to midnight, offers a wide range of food options. Its website is https://best--restaurants.blogspot.com/ and its phone number is 95 120 004.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Cafe Ilyes is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 36.470294891144, 10.781653705417.
+LA BAMBA is a Pizzeria located in Beni Khiar, Tunisia. LA BAMBA is rated 4.7 out of 5 stars based on 10 reviews and offers a variety of pizza options. LA BAMBA is located at the coordinates (36.5502451, 10.7267426) and is owned by LA BAMBA (proprietaire).
+Fast Food Haythem is a highly rated (5/5) fast food establishment located in Beni Khiar, Tunisia. It serves up a variety of fast food options, with its exact menu and cuisine remaining unknown. Situated at coordinates (36.4724714, 10.7885366), the restaurant can be easily found and contacted through its provided phone number.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Port de Beni Khiar is a bustling port in the coastal town of Beni Khiar, Tunisia. It serves as a vital hub for maritime trade and offers panoramic views of the Mediterranean Sea. With a high rating of 4.6 and 9 user reviews, the port is a popular destination for locals and tourists alike. Its strategic location at coordinates (36.4542877, 10.7969189) makes it a convenient access point for a variety of activities.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7132,12 +9928,58 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Restaurant La casa doro located at FQGQ+48P Restaurant La casa doro, Route korba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 36.5502451, 10.7267426. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+casa+doro/data=!4m7!3m6!1s0x1302a2baac91648f:0x6e935ccfcbbd9878!8m2!3d36.4753281!4d10.7883138!16s%2Fg%2F11c30x754b!19sChIJj2SRrLqiAhMReJi9y89ck24?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 070 718.</t>
+          <t>Restaurant La casa doro is a popular restaurant located in beni khiar, Tunisia (coordinates 36.5502451, 10.7267426). The restaurant offers a delightful dining experience, earning a respectable rating of 4.1 out of 5 stars from previous patrons. It operates during the following hours: 10:00-21:30, and remains closed on sundays.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where in beni khiar can you find a top-rated destination for Restaurant lovers with a 4.1 rating?</t>
+          <t>**Day Plan:**
+**Morning:** Explore **Plage Beni Khiar** for its swimming and sunbathing opportunities.
+**Mid-Morning:** Visit **The Port de Beni Khiar** for picturesque views and local amenities.
+**Midday:** Try local cuisine at **PAPA WES'S PIZZA** for a variety of dishes and positive reviews.
+**Afternoon:** Relax with a coffee at **Waka Waka** café.
+**Evening:** Explore **Beni Khiar bakery** for its delicious offerings.
+**Night:** Enjoy the highly-rated pizzas at **LA BAMBA**.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+PAPA WES'S PIZZA is a restaurant located in beni khiar, offering a variety of dishes and cuisines. It is situated at the coordinates (36.467164795132, 10.785382730321) and is open from 9:00 AM to midnight during weekdays. The restaurant has received 13 reviews and has a rating of 4.0.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Discover "Waka Waka," a charming cafe in Waka Waka, Beni Khiar. Nestled at coordinates (36.46798, 10.75167), this cozy spot offers a relaxing atmosphere for coffee lovers. Its menu features a delightful selection of beverages and treats, making it an ideal destination for catching up with friends or enjoying a moment of tranquility.
+LA BAMBA is a highly-rated pizzeria located in beni khiar (coordinates: 36.5502451, 10.7267426). According to 10 reviews, it has a 4.7-star rating for its delicious pizzas.
+Fastfood Beni Beni is a fast food restaurant located in Beni Khiar. It is open from 9am to 10pm from Monday to Saturday and is closed on Sundays. You can find them at the following address: 165-153 shr` lHbyb bwrqyb@, Beni Khiar. Their menu is not available online, but they have a rating of 5.0 out of 5 stars on Google, so you can be sure that you'll have a great meal.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia, offering a 4.7-star rating based on 3 reviews. It features a featured image showcasing the property, highlighting its guest-friendly ambiance. Despite limited information available on its website and description, Jinen Beni Khiar's precise location can be found at coordinates (36.469386365975, 10.807021723363), pinpointing its position on the map.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7247,14 +10089,59 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Grill station located at FQGP+43F Grill station, a cote de carrefour, A. Beni Khiar ----- Nabeul, Dar Chaabane Al Fehri. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-01:00, but closed on . To get there, use these GPS coordinates: 36.46798, 10.75167. For more details, visit their website at https://www.facebook.com/Grill-station-1855632481210052/ or call them at 23 312 754.</t>
+          <t>Grill station, located in beni khiar is a restaurant rated 4.3 out of 5 stars with 29 reviews. It is a popular spot for seafood, and offers a variety of side dishes. The restaurant is open from 10:00 to 01:00, and is closed on . The phone number is 23 312 754.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>What is the address and what type of establishment is the top-rated Grill station in Beni Khiar, Tunisia?</t>
+          <t>Day Plan:
+Morning: Start the day by visiting the historic Port of Beni Khiar (36.4542877, 10.7969189) to witness its vibrant atmosphere and enjoy the stunning views of the harbor.
+Mid-Morning: Stroll through the bustling streets of Beni Khiar and explore the local market, experiencing the vibrant culture and discovering unique souvenirs.
+Midday: Indulge in the local cuisine at one of the highly-rated restaurants in the area. Grill Station, with its excellent reviews and reputation for seafood and grilled meats, is a great option to savor authentic Tunisian flavors.
+Afternoon: Escape to the serene Plage Beni Khiar (36.4544108, 10.785304) and soak up the sun on its pristine beach. Relax by the calm waters and enjoy the picturesque surroundings.
+Evening: Immerse yourself in the cultural heritage of the region at the Jinen Beni Khiar (36.469386365975, 10.807021723363). This charming chambre d'hotes offers an authentic experience with traditional decor and a focus on serving fresh seafood.
+Night: End the day with a relaxing stroll through the town, taking in the sights and sounds of the evening atmosphere. Enjoy a leisurely dinner at BiBi Terrasse (36.4724714, 10.7885366), savoring its delectable food and beverages while soaking up the charming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station is a restaurant located in beni khiar, near the carrefour. It offers a variety of dishes, including seafood and grilled meats. The restaurant has a 4.3 rating on Google and is known for its good food and service. It is open from 10:00-01:00 and is closed on Sundays. The restaurant's phone number is 23 312 754 and its website is https://www.facebook.com/Grill-station-1855632481210052/.
+Boulangerie Beni khiar is located in Beni Khiar, Tunisia at around (36.46917, 10.78222) offering a variety of bread and pastries.
+## BiBi Terrasse
+BiBi Terrasse is a cafe located in Beni Khiar, Tunisia. It offers a variety of food and drinks, and has a rating of 4.5 out of 5 on Google Maps. The cafe is located at the coordinates (36.4724714, 10.7885366).
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a chambre d'hotes with a rating of 4.7, located at FQ3G+6P3 Jinen Beni Khiar, Rue de, Beni Khiar 8060, with coordinates of (36.469386365975, 10.807021723363).
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7352,12 +10239,58 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for something fun to do, check out Port de Beni Khiar located at Port de Beni Khiar, Beni Khiar. This top-rated destination is perfect for Port maritime lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.4542877, 10.7969189.</t>
+          <t>The Port de Beni Khiar (36.4542877, 10.7969189) is a port located in Beni Khiar. With a rating of 4.6, it is a popular place among visitors. The port offers a range of services and amenities, making it a convenient and accessible destination for both local residents and tourists.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>What is the top-rated destination for Port maritime enthusiasts located near Beni Khiar with GPS coordinates 36.4542877, 10.7969189?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage Beni Khiar, enjoying the sandy beach and crystal-clear waters.
+Mid-Morning: Visit the Port de Beni Khiar, taking a tour to witness its exceptional maritime services and learn about its importance to the local economy.
+Midday: Try local cuisine at Restaurant La Casa Doro, indulging in traditional Tunisian flavors with a 4.1-star rating based on 16 reviews.
+Afternoon: Visit the nearby Beni Khiar bakery, renowned for its excellent 4.4-star rating and 17 reviews, and savor freshly baked pastries and bread.
+Evening: Relax at Fennia Cafe, located in the heart of Beni Khiar, enjoying a refreshing beverage while soaking in the local atmosphere.
+Night: Experience the vibrant nightlife at LA BAMBA, a Pizzeria in Beni Khiar, enjoying live music, delicious food, and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Casa Doro welcomes you in beni khiar. It has a 4.1 rating based on 16 reviews. It is open from Monday to Saturday from 10:00 to 21:30 and is closed on Sundays.
+**Beni Khiar** is a bakery known for its excellent 4.4-star rating and 17 reviews. Located at FQ5M+V7J Beni khiar, Beni Khiar (36.46917, 10.78222), this beloved bakery serves the local community with its delicious offerings. While the bakery's website and description are currently unavailable, its phone number, 92 422 215, provides a direct line of communication for customers eager to indulge in Beni Khiar's culinary delights.
+Fennia Cafe, approved by 9 reviewers, welcomes you with a rating of 4.4. Located in Beni Khiar at the coordinates (36.4724714, 10.7885366), this cafe is a great place to relax and enjoy the company of others. They are open from 05:00 AM to 10:00 PM during weekdays.
+LA BAMBA is a Pizzeria located in beni khiar. Its coordinates are (36.5502451, 10.7267426).
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with coordinates (36.4544108, 10.785304), is a popular tourist destination in Beni Khiar. This beach offers a range of activities for visitors to enjoy, including swimming, sunbathing, and beach volleyball. Plage Beni Khiar is also home to a number of restaurants and cafes, making it a great place to relax and enjoy a meal while taking in the beautiful scenery.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7455,12 +10388,58 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a reliable gas station, check out OLA located at FQGQ+3PH OLA. This top-rated destination is open 24/7 and offers a range of services to choose from. With a rating of 3.5, it's a must-visit spot for locals and travelers alike. To get there, use these GPS coordinates: 36.4724714, 10.7885366.</t>
+          <t>OLA, a gas station located in Beni Khiar (36.4724714, 10.7885366), offers fuel and other services to its customers. It has received an average rating of 3.5 based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Beni Khiar can you find a highly rated gas station that stays open 24/7, offering a variety of services?</t>
+          <t>Day Plan:
+Morning: Explore Pepiniere Maamoura, a nursery offering various plants.
+Mid-Morning: Visit Boulangerie Beni khiar, a well-known bakery in Beni Khiar.
+Midday: Try local cuisine at Grill station, a seafood restaurant with a 4.3-star rating.
+Afternoon: Relax and enjoy the beach at Plage Beni Khiar, known for its serene atmosphere and stunning views.
+Evening: Experience cultural immersion at the Port de Beni Khiar, a maritime port with historical significance.
+Night: Enjoy dinner at Restaurant la voix de la mer, specializing in fresh seafood dishes.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Grill station, located in beni khiar is a restaurant rated 4.3 out of 5 stars with 29 reviews. It is a popular spot for seafood, and offers a variety of side dishes. The restaurant is open from 10:00 to 01:00, and is closed on . The phone number is 23 312 754.
+**Boulangerie Beni khiar** is a reputable bakery situated in Beni Khiar, Tunisia. Located at the coordinates (36.46917, 10.78222), it offers a vast selection of freshly baked goods.
+Waka Waka, located in beni khiar, is a delightful cafe. Its convenient location at coordinates (36.46798, 10.75167) makes it easily accessible. The cafe's main focus is on providing a warm and inviting atmosphere for its customers, who can enjoy refreshments and relax in a cozy setting. With a rating of 5.0, Waka Waka has earned high praise from its patrons, highlighting the excellent experience it offers.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar, with its 4.1 rating and 57 reviews, is a popular beach located at (36.4544108, 10.785304) in Beni Khiar. The beach is known for its serene atmosphere and breathtaking views. It is a perfect spot for relaxation, swimming, and enjoying the beauty of nature.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a guest house located in Beni Khiar, Tunisia (36.469386365975, 10.807021723363). It offers a peaceful stay with a rating of 4.7 out of 5. Its contact information includes a phone number (98 312 948) and an address (Rue de FQ3G+6P3, Beni Khiar 8060). Jinen Beni Khiar is owned by Jinen Beni Khiar and falls under the category of guest houses.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7558,14 +10537,58 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in beni khiar and looking for a Station-service, check out OLA located at FQGQ+3PH OLA, Beni Khiar. 
-This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from. 
-With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.4724714, 10.7885366. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x1302a2b002c0f90d:0xbeb241f6fe3bd717!8m2!3d36.4751811!4d10.7893521!16s%2Fg%2F11c51rjtt7!19sChIJDfnAArCiAhMRF9c7_vZBsr4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at their phone number.</t>
+          <t>OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Station-service with a wide selection of offerings in Beni Khiar, boasting a 3.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Plage Beni Khiar, enjoying its clean sands and crystal-clear waters for swimming and sunbathing.
+Mid-Morning: Visit the Port de Beni Khiar, admiring its exceptional services and the scenic coastal views.
+Midday: Savor local cuisine at LA BAMBA, a pizzeria renowned for its delectable offerings and a 4.7/5 rating.
+Afternoon: Engage in a guided tour of the Jinen Beni Khiar, immersing yourself in the cultural heritage and exploring its captivating exhibits.
+Evening: Delight in the vibrant ambiance of La Pampa restaurant, savoring a diverse menu and experiencing the lively atmosphere.
+Night: Relax at the Ola gas station, enjoying a refreshing break with snacks, drinks, and scenic views of the surrounding area.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Pampa is a restaurant located in Beni Khiar, offering a variety of dining options. It has received a 4.4 rating from customers and is open from 7am to 1pm and 5pm to 2am daily. The restaurant's featured image showcases a vibrant and inviting ambiance, and it is located at the coordinates (36.454387640549, 10.785850418423).
+Located in Beni Khiar, this bakery has earned a 4.4-star rating from 17 reviews. Its exact location is at FQ5M+V7J, and it can be contacted at 92 422 215 for inquiries or orders.
+Cafe des Arcades, located at 15 Av. 14 Janvier 2011, Beni Khiar, is a cafe offering a relaxing atmosphere with a 4.4 rating based on 8 reviews. It operates daily from 4:30 AM to midnight and can be reached via phone at 90 443 842.
+LA BAMBA is a Pizzeria located in beni khiar. Its rating is 4.7/5 based on 10 reviews.
+Fast Food Haythem is a fast food restaurant located in Beni Khiar, Tunisia. It has a rating of 5.0 based on 4 reviews. It is located at 36.4724714, 10.7885366.
+Plage Beni Khiar is a beautiful beach located in Beni Khiar, Tunisia. It boasts a 4.1 rating based on 57 reviews, and is known for its clean sands and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and taking in the stunning coastal views. The beach is easily accessible via road and is an ideal destination for a relaxing day trip or beach vacation.
+Located at coordinates (36.4542877, 10.7969189) in the city of Beni Khiar, Port de Beni Khiar is a maritime port renowned for its exceptional services. Despite lacking a website or featured image, the port maintains an impressive rating of 4.6 based on 9 reviews.
+Located in Beni Khiar (coordinates: 45.19834, 0.35948), Restaurant la voix de la mer specializes in seafood. With a rating of 3.8 based on 4 reviews, it offers an authentic dining experience that focuses on the freshest catches of the day.
+Jinen Beni Khiar is a renowned chambre d'hôtes located in Beni Khiar, Tunisia. It boasts an impressive rating of 4.7 stars from 3 reviews, showcasing its exceptional quality. Nestled at coordinates (36.469386365975, 10.807021723363), the chambre d'hôtes offers guests a convenient location for exploring the area.
+Gb@ lbndq bny khyr is a 4.5-rated campsite located in Beni Khiar, Tunisia. It's a great place to relax and enjoy the outdoors. The campsite is located at coordinates (36.4724714, 10.7885366).
+Pepiniere Maamoura is located in Beni Khiar, Tunisia, at (36.46499, 10.80612). It offers a wide range of plants in its nursery. The place opens from 7:30 AM to 5:30 PM, their phone number is 98 227 039. Many people recommend the nursery as google gave it a 4.5-star rating.
+Nestled in the Beni Khiar, Maison de campagne imed Aounallah is an agricultural hub offering a wide range of services. Located at coordinates (36.4724714, 10.7885366), it operates round-the-clock and specializes in agriculture. With a rating of 5.0, it has received positive feedback from customers. Contact them at 93 573 363 for inquiries.
+OLA is a gas station located in Beni Khiar, Tunisia. It offers a variety of fuel options, including gasoline, diesel, and LPG. The gas station also has a convenience store that sells snacks, drinks, and other items. The gas station is open 24 hours a day, 7 days a week. The coordinates of the gas station are (36.4724714, 10.7885366).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
